--- a/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Enfermedad renal terminal (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Enfermedad renal terminal (UPTO).xlsx
@@ -590,67 +590,67 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.609613930348254</v>
+        <v>2.547124378109447</v>
       </c>
       <c r="H2" t="n">
-        <v>0.845150793650792</v>
+        <v>0.8359999999999996</v>
       </c>
       <c r="I2" t="n">
-        <v>4.904311111111117</v>
+        <v>4.751999999999998</v>
       </c>
       <c r="J2" t="n">
-        <v>17.91299136209284</v>
+        <v>17.67631840796018</v>
       </c>
       <c r="K2" t="n">
-        <v>9.840401587301585</v>
+        <v>9.984000000000002</v>
       </c>
       <c r="L2" t="n">
-        <v>27.46531016391016</v>
+        <v>26.82</v>
       </c>
       <c r="M2" t="n">
-        <v>19.41790309958145</v>
+        <v>19.2950447761194</v>
       </c>
       <c r="N2" t="n">
-        <v>12.6609715007215</v>
+        <v>12.62799999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>25.40468149350651</v>
+        <v>25.31200000000002</v>
       </c>
       <c r="P2" t="n">
-        <v>12.12914445622162</v>
+        <v>13.07383084577113</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.49336438496144</v>
+        <v>8.984</v>
       </c>
       <c r="R2" t="n">
-        <v>16.1413934240914</v>
+        <v>16.61600000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>7.672397956866097</v>
+        <v>7.324716417910438</v>
       </c>
       <c r="T2" t="n">
-        <v>4.483734053676839</v>
+        <v>4.332000000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>10.88484873753698</v>
+        <v>10.64400000000001</v>
       </c>
       <c r="V2" t="n">
-        <v>3.288978125198378</v>
+        <v>3.212776119402972</v>
       </c>
       <c r="W2" t="n">
-        <v>1.190826495726497</v>
+        <v>1.168000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>5.636591388472044</v>
+        <v>5.624000000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5570829740187946</v>
+        <v>0.556258706467661</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.442852120210946</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3">
@@ -682,58 +682,58 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.01994029850746256</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="M3" t="n">
-        <v>0.814302321724709</v>
+        <v>0.8298905472636803</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2192817460317457</v>
+        <v>0.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.728633333333332</v>
+        <v>1.739999999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>1.685700829187391</v>
+        <v>1.688855721393032</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4994285714285712</v>
+        <v>0.524</v>
       </c>
       <c r="R3" t="n">
-        <v>3.165777777777775</v>
+        <v>3.131999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>2.081393034825866</v>
+        <v>2.038726368159198</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7895059829059812</v>
+        <v>0.7560000000000003</v>
       </c>
       <c r="U3" t="n">
-        <v>3.736</v>
+        <v>3.719999999999998</v>
       </c>
       <c r="V3" t="n">
-        <v>1.658198218133114</v>
+        <v>1.651980099502487</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5799642857142863</v>
+        <v>0.5840000000000005</v>
       </c>
       <c r="X3" t="n">
-        <v>3.340666666666668</v>
+        <v>3.332000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.4513861587994151</v>
+        <v>0.4392835820895507</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.008000000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.089507958461923</v>
+        <v>1.048</v>
       </c>
     </row>
     <row r="4">
@@ -774,49 +774,49 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.389461028192371</v>
+        <v>1.368557213930347</v>
       </c>
       <c r="N4" t="n">
-        <v>0.291685714285714</v>
+        <v>0.276</v>
       </c>
       <c r="O4" t="n">
-        <v>2.652333333333331</v>
+        <v>2.619999999999998</v>
       </c>
       <c r="P4" t="n">
-        <v>3.230524488667763</v>
+        <v>3.219601990049744</v>
       </c>
       <c r="Q4" t="n">
         <v>1.4</v>
       </c>
       <c r="R4" t="n">
-        <v>5.618622222222209</v>
+        <v>5.548000000000003</v>
       </c>
       <c r="S4" t="n">
-        <v>3.965339966832495</v>
+        <v>3.961572139303472</v>
       </c>
       <c r="T4" t="n">
-        <v>1.807031746031744</v>
+        <v>2.012</v>
       </c>
       <c r="U4" t="n">
-        <v>6.878666666666663</v>
+        <v>6.604000000000003</v>
       </c>
       <c r="V4" t="n">
-        <v>2.967659690730641</v>
+        <v>3.073273631840786</v>
       </c>
       <c r="W4" t="n">
-        <v>1.267308424908427</v>
+        <v>1.220000000000001</v>
       </c>
       <c r="X4" t="n">
-        <v>5.209763636363636</v>
+        <v>5.260000000000002</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8483743899549858</v>
+        <v>0.8689154228855713</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1491500203500201</v>
+        <v>0.18</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.815560846560851</v>
+        <v>1.811999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -848,58 +848,58 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8626244491826577</v>
+        <v>0.8093532338308459</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1907107318607316</v>
+        <v>0.1280000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>1.852800865800869</v>
+        <v>1.767999999999998</v>
       </c>
       <c r="M5" t="n">
-        <v>1.6841672668404</v>
+        <v>1.67820895522388</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4219271145521141</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>3.32977222222222</v>
+        <v>3.320000000000002</v>
       </c>
       <c r="P5" t="n">
-        <v>2.238335544499715</v>
+        <v>2.190885572139298</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8114571428571424</v>
+        <v>0.7999999999999997</v>
       </c>
       <c r="R5" t="n">
-        <v>4.08709158249158</v>
+        <v>3.992</v>
       </c>
       <c r="S5" t="n">
-        <v>2.245850630445642</v>
+        <v>2.243422885572131</v>
       </c>
       <c r="T5" t="n">
-        <v>0.854415516509633</v>
+        <v>0.8399999999999995</v>
       </c>
       <c r="U5" t="n">
-        <v>4.048</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>1.672368881386878</v>
+        <v>1.685771144278605</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5725558897930419</v>
+        <v>0.6000000000000005</v>
       </c>
       <c r="X5" t="n">
-        <v>3.075996962599286</v>
+        <v>3.135999999999999</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.4545309149835426</v>
+        <v>0.4502686567164172</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.201666061370915</v>
+        <v>1.072</v>
       </c>
     </row>
     <row r="6">
@@ -922,67 +922,67 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7236655058043112</v>
+        <v>0.8190248756218891</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01866666666666667</v>
+        <v>0.07600000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>1.595939682539681</v>
+        <v>1.848</v>
       </c>
       <c r="J6" t="n">
-        <v>4.999052831082675</v>
+        <v>5.14153233830845</v>
       </c>
       <c r="K6" t="n">
-        <v>2.224923617123617</v>
+        <v>2.256000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>8.701733333333346</v>
+        <v>8.775999999999998</v>
       </c>
       <c r="M6" t="n">
-        <v>7.526783108268173</v>
+        <v>7.710945273631831</v>
       </c>
       <c r="N6" t="n">
-        <v>3.506604761904762</v>
+        <v>3.744000000000002</v>
       </c>
       <c r="O6" t="n">
-        <v>11.93250357991681</v>
+        <v>12.22</v>
       </c>
       <c r="P6" t="n">
-        <v>7.969915060091913</v>
+        <v>7.853273631840786</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.717234920634919</v>
+        <v>4.679999999999998</v>
       </c>
       <c r="R6" t="n">
-        <v>11.74116984126984</v>
+        <v>11.42</v>
       </c>
       <c r="S6" t="n">
-        <v>6.901934450734443</v>
+        <v>6.754407960198994</v>
       </c>
       <c r="T6" t="n">
-        <v>4.12098466903467</v>
+        <v>4.040000000000002</v>
       </c>
       <c r="U6" t="n">
-        <v>10.09700213120213</v>
+        <v>10.136</v>
       </c>
       <c r="V6" t="n">
-        <v>4.295388051783404</v>
+        <v>4.252975124378096</v>
       </c>
       <c r="W6" t="n">
-        <v>2.428879376179378</v>
+        <v>2.396000000000001</v>
       </c>
       <c r="X6" t="n">
-        <v>6.394680627853233</v>
+        <v>6.492000000000002</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.053334462191289</v>
+        <v>1.08457711442786</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2020145556952004</v>
+        <v>0.2159999999999999</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.095687811897625</v>
+        <v>2.156000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1014,58 +1014,58 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.628452736318394</v>
+        <v>2.533074626865658</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8266666666666647</v>
+        <v>0.7839999999999998</v>
       </c>
       <c r="L7" t="n">
-        <v>5.0608</v>
+        <v>4.9</v>
       </c>
       <c r="M7" t="n">
-        <v>17.8394458895996</v>
+        <v>17.63721393034826</v>
       </c>
       <c r="N7" t="n">
-        <v>9.63233333333333</v>
+        <v>9.484000000000004</v>
       </c>
       <c r="O7" t="n">
-        <v>28.02875952380952</v>
+        <v>27.50399999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>19.47628362863043</v>
+        <v>19.01418905472637</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05594285714285</v>
+        <v>13.03599999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>25.16483500225267</v>
+        <v>24.87199999999998</v>
       </c>
       <c r="S7" t="n">
-        <v>11.30579513265783</v>
+        <v>12.38089552238805</v>
       </c>
       <c r="T7" t="n">
-        <v>7.947668928545064</v>
+        <v>9.227999999999993</v>
       </c>
       <c r="U7" t="n">
-        <v>15.39093168985035</v>
+        <v>15.988</v>
       </c>
       <c r="V7" t="n">
-        <v>5.876282572188847</v>
+        <v>5.754567164179092</v>
       </c>
       <c r="W7" t="n">
-        <v>3.140465334665335</v>
+        <v>3</v>
       </c>
       <c r="X7" t="n">
-        <v>8.793482618166149</v>
+        <v>9.043999999999997</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.055931750283989</v>
+        <v>1.050805970149254</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2013333333333329</v>
+        <v>0.2039999999999999</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.287490881903925</v>
+        <v>2.276000000000002</v>
       </c>
     </row>
     <row r="8">
@@ -1106,49 +1106,49 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>41.69735759409182</v>
+        <v>42.48103482587054</v>
       </c>
       <c r="N8" t="n">
-        <v>25.6801525086025</v>
+        <v>26.33599999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>57.67655634920634</v>
+        <v>57.83999999999998</v>
       </c>
       <c r="P8" t="n">
-        <v>28.08838016459298</v>
+        <v>27.96648756218895</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.92513333333335</v>
+        <v>20.14800000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>34.66735516043411</v>
+        <v>34.61599999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>6.843692832135624</v>
+        <v>6.786587064676607</v>
       </c>
       <c r="T8" t="n">
-        <v>2.582222222222224</v>
+        <v>2.492</v>
       </c>
       <c r="U8" t="n">
-        <v>12.36813333333333</v>
+        <v>12.296</v>
       </c>
       <c r="V8" t="n">
-        <v>1.24821530443023</v>
+        <v>1.192457711442785</v>
       </c>
       <c r="W8" t="n">
-        <v>0.17</v>
+        <v>0.004</v>
       </c>
       <c r="X8" t="n">
-        <v>3.612666666666663</v>
+        <v>3.583999999999997</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.09185621100844987</v>
+        <v>0.09004975124378108</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.002666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4903333333333336</v>
+        <v>0.4880000000000002</v>
       </c>
     </row>
     <row r="9">
@@ -1180,58 +1180,58 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.575944763362667</v>
+        <v>2.600039800995018</v>
       </c>
       <c r="K9" t="n">
-        <v>1.048623789173789</v>
+        <v>0.9879999999999999</v>
       </c>
       <c r="L9" t="n">
-        <v>4.920785714285706</v>
+        <v>4.784000000000003</v>
       </c>
       <c r="M9" t="n">
-        <v>6.634756218905455</v>
+        <v>6.596577114427856</v>
       </c>
       <c r="N9" t="n">
-        <v>3.227890476190475</v>
+        <v>3.292000000000002</v>
       </c>
       <c r="O9" t="n">
-        <v>10.68676378066379</v>
+        <v>10.55999999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>7.696175400773882</v>
+        <v>7.695283582089539</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.401999999999997</v>
+        <v>4.415999999999997</v>
       </c>
       <c r="R9" t="n">
-        <v>11.56151111111112</v>
+        <v>11.68399999999999</v>
       </c>
       <c r="S9" t="n">
-        <v>7.156257736797063</v>
+        <v>7.117034825870633</v>
       </c>
       <c r="T9" t="n">
-        <v>4.051929873829873</v>
+        <v>4.024</v>
       </c>
       <c r="U9" t="n">
-        <v>10.26822770562771</v>
+        <v>10.16</v>
       </c>
       <c r="V9" t="n">
-        <v>4.735207918727034</v>
+        <v>4.616417910447746</v>
       </c>
       <c r="W9" t="n">
-        <v>2.689943711843715</v>
+        <v>2.695999999999998</v>
       </c>
       <c r="X9" t="n">
-        <v>7.081686342938108</v>
+        <v>6.972000000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.212158915588795</v>
+        <v>1.229353233830846</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.379698845598845</v>
+        <v>0.3959999999999999</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.270899229305256</v>
+        <v>2.340000000000002</v>
       </c>
     </row>
     <row r="10">
@@ -1263,58 +1263,58 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.01934461028191</v>
+        <v>15.96171144278606</v>
       </c>
       <c r="K10" t="n">
-        <v>8.045111111111126</v>
+        <v>8.087999999999996</v>
       </c>
       <c r="L10" t="n">
-        <v>25.08373333333333</v>
+        <v>25.228</v>
       </c>
       <c r="M10" t="n">
-        <v>44.21077267168977</v>
+        <v>45.07468656716414</v>
       </c>
       <c r="N10" t="n">
-        <v>30.87373158654212</v>
+        <v>33.16799999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>55.06126587301586</v>
+        <v>54.39200000000001</v>
       </c>
       <c r="P10" t="n">
-        <v>14.60991962410171</v>
+        <v>14.54390049751243</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.489628571428568</v>
+        <v>8.504000000000001</v>
       </c>
       <c r="R10" t="n">
-        <v>21.5217015873016</v>
+        <v>21.54799999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>3.25508594066703</v>
+        <v>3.152537313432834</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7030539682539673</v>
+        <v>0.6440000000000005</v>
       </c>
       <c r="U10" t="n">
-        <v>7.582633333333335</v>
+        <v>7.368</v>
       </c>
       <c r="V10" t="n">
-        <v>0.578678125246782</v>
+        <v>0.5662089552238798</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>2.166933333333334</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.05059602205423098</v>
+        <v>0.04569154228855718</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.3447042328042325</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="11">
@@ -1337,67 +1337,67 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.623114427860695</v>
+        <v>4.705910447761192</v>
       </c>
       <c r="H11" t="n">
-        <v>1.577333333333335</v>
+        <v>1.592000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>8.294666666666673</v>
+        <v>8.459999999999994</v>
       </c>
       <c r="J11" t="n">
-        <v>26.79065246781951</v>
+        <v>27.20415920397998</v>
       </c>
       <c r="K11" t="n">
-        <v>16.90742191631323</v>
+        <v>16.97200000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>37.85748813700923</v>
+        <v>38.48399999999998</v>
       </c>
       <c r="M11" t="n">
-        <v>22.31454797441356</v>
+        <v>22.47854726368147</v>
       </c>
       <c r="N11" t="n">
-        <v>17.00636515151515</v>
+        <v>16.84399999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>27.03165328837829</v>
+        <v>26.98399999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>11.90338839812824</v>
+        <v>11.56469651741293</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.842193453931686</v>
+        <v>7.423999999999994</v>
       </c>
       <c r="R11" t="n">
-        <v>16.09060559340357</v>
+        <v>16.29600000000001</v>
       </c>
       <c r="S11" t="n">
-        <v>4.81383291909858</v>
+        <v>4.723562189054707</v>
       </c>
       <c r="T11" t="n">
-        <v>1.81957523587524</v>
+        <v>1.787999999999999</v>
       </c>
       <c r="U11" t="n">
-        <v>8.259999999999996</v>
+        <v>8.251999999999992</v>
       </c>
       <c r="V11" t="n">
-        <v>1.422864645746735</v>
+        <v>1.40670646766169</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1779999999999997</v>
+        <v>0.196</v>
       </c>
       <c r="X11" t="n">
-        <v>3.21578787878788</v>
+        <v>3.144</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1849083471531229</v>
+        <v>0.184457711442786</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7262888888888873</v>
+        <v>0.7240000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1411,76 +1411,76 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.437197346600329</v>
+        <v>1.776497512437808</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2832750221456103</v>
+        <v>0.4759999999999998</v>
       </c>
       <c r="F12" t="n">
-        <v>2.907555555555559</v>
+        <v>3.459999999999998</v>
       </c>
       <c r="G12" t="n">
-        <v>9.939100473821371</v>
+        <v>10.30411940298507</v>
       </c>
       <c r="H12" t="n">
-        <v>4.861055026455027</v>
+        <v>5.296</v>
       </c>
       <c r="I12" t="n">
-        <v>15.55940000000001</v>
+        <v>16.464</v>
       </c>
       <c r="J12" t="n">
-        <v>13.22542269604357</v>
+        <v>13.4517213930348</v>
       </c>
       <c r="K12" t="n">
-        <v>8.142060317460306</v>
+        <v>8.696000000000007</v>
       </c>
       <c r="L12" t="n">
-        <v>18.71508023088026</v>
+        <v>19.23600000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>11.50492552820312</v>
+        <v>11.61590049751242</v>
       </c>
       <c r="N12" t="n">
-        <v>7.582806746031745</v>
+        <v>7.608000000000003</v>
       </c>
       <c r="O12" t="n">
-        <v>15.83253751803753</v>
+        <v>15.98</v>
       </c>
       <c r="P12" t="n">
-        <v>7.787155962447276</v>
+        <v>8.53663681592038</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.921307370201179</v>
+        <v>5.816000000000002</v>
       </c>
       <c r="R12" t="n">
-        <v>11.15889219572798</v>
+        <v>11.728</v>
       </c>
       <c r="S12" t="n">
-        <v>5.630973903307914</v>
+        <v>5.741373134328344</v>
       </c>
       <c r="T12" t="n">
-        <v>3.394238114391056</v>
+        <v>3.284000000000002</v>
       </c>
       <c r="U12" t="n">
-        <v>7.906810748608118</v>
+        <v>8.023999999999999</v>
       </c>
       <c r="V12" t="n">
-        <v>3.242549492201038</v>
+        <v>3.07874626865671</v>
       </c>
       <c r="W12" t="n">
-        <v>1.504019103119102</v>
+        <v>1.48</v>
       </c>
       <c r="X12" t="n">
-        <v>5.309657080758938</v>
+        <v>5.099999999999995</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.7323365327918665</v>
+        <v>0.6896915422885557</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.08090503645626983</v>
+        <v>0.1480000000000001</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.639700377814854</v>
+        <v>1.679999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -1503,67 +1503,67 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>34.7773182263286</v>
+        <v>34.46953233830838</v>
       </c>
       <c r="H13" t="n">
-        <v>21.14108888888889</v>
+        <v>20.73599999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>49.09324843674844</v>
+        <v>49.152</v>
       </c>
       <c r="J13" t="n">
-        <v>31.31464828239747</v>
+        <v>31.32997014925367</v>
       </c>
       <c r="K13" t="n">
-        <v>23.98249589611166</v>
+        <v>24.24</v>
       </c>
       <c r="L13" t="n">
-        <v>37.93947436267435</v>
+        <v>37.70800000000001</v>
       </c>
       <c r="M13" t="n">
-        <v>10.09626723130379</v>
+        <v>10.08692537313431</v>
       </c>
       <c r="N13" t="n">
-        <v>4.820276190476195</v>
+        <v>4.755999999999998</v>
       </c>
       <c r="O13" t="n">
-        <v>16.48430555555555</v>
+        <v>16.40799999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>2.548088159730437</v>
+        <v>2.57661691542287</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4535047619047618</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="R13" t="n">
-        <v>6.162965364265361</v>
+        <v>6.208000000000001</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6224552707657179</v>
+        <v>0.6306268656716414</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01011111111111111</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.179082872682873</v>
+        <v>2.264000000000001</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1228384775192843</v>
+        <v>0.1341691542288556</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.7455066378066378</v>
+        <v>0.8279999999999998</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.008049900855268131</v>
+        <v>0.01227860696517413</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.1641822492375948</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="14">
@@ -1586,67 +1586,67 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.640172305140957</v>
+        <v>7.749611940298497</v>
       </c>
       <c r="H14" t="n">
-        <v>3.283733333333329</v>
+        <v>3.304000000000002</v>
       </c>
       <c r="I14" t="n">
-        <v>12.8526666666667</v>
+        <v>13.008</v>
       </c>
       <c r="J14" t="n">
-        <v>35.69905316132174</v>
+        <v>35.71526368159196</v>
       </c>
       <c r="K14" t="n">
-        <v>23.9973389260092</v>
+        <v>24.07200000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>45.58625185185183</v>
+        <v>46.43200000000002</v>
       </c>
       <c r="M14" t="n">
-        <v>21.92978580115289</v>
+        <v>21.88179104477603</v>
       </c>
       <c r="N14" t="n">
-        <v>15.9037</v>
+        <v>15.90399999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>26.99068344710845</v>
+        <v>27.11200000000002</v>
       </c>
       <c r="P14" t="n">
-        <v>8.167700032195549</v>
+        <v>8.177631840796005</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.564333333333333</v>
+        <v>3.759999999999998</v>
       </c>
       <c r="R14" t="n">
-        <v>13.22382178466757</v>
+        <v>13.224</v>
       </c>
       <c r="S14" t="n">
-        <v>2.343609089473261</v>
+        <v>2.46798009950248</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3451449735449729</v>
+        <v>0.4399999999999998</v>
       </c>
       <c r="U14" t="n">
-        <v>5.307878787878791</v>
+        <v>5.456000000000002</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5392406222853974</v>
+        <v>0.5797412935323378</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="X14" t="n">
-        <v>1.754019047619047</v>
+        <v>1.815999999999999</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.05058758851246411</v>
+        <v>0.05858706467661686</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.3782485569985563</v>
+        <v>0.4079999999999998</v>
       </c>
     </row>
     <row r="15">
@@ -1660,76 +1660,76 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.02127363184079596</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.05199999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8880080115296525</v>
+        <v>0.7902686567164164</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1903783068783068</v>
+        <v>0.016</v>
       </c>
       <c r="I15" t="n">
-        <v>1.92502645502646</v>
+        <v>1.819999999999998</v>
       </c>
       <c r="J15" t="n">
-        <v>1.823213993634889</v>
+        <v>1.715980099502488</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6771621489621493</v>
+        <v>0.4800000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>3.500651718651719</v>
+        <v>3.368</v>
       </c>
       <c r="M15" t="n">
-        <v>2.312389482601413</v>
+        <v>2.304019900497499</v>
       </c>
       <c r="N15" t="n">
-        <v>0.869133333333333</v>
+        <v>0.8079999999999998</v>
       </c>
       <c r="O15" t="n">
-        <v>4.196597763347762</v>
+        <v>4.207999999999997</v>
       </c>
       <c r="P15" t="n">
-        <v>2.442986992204398</v>
+        <v>2.430368159203974</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.069616117216117</v>
+        <v>1.068</v>
       </c>
       <c r="R15" t="n">
-        <v>4.384384126984131</v>
+        <v>4.499999999999997</v>
       </c>
       <c r="S15" t="n">
-        <v>2.281294158835442</v>
+        <v>2.37233830845771</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9878412698412699</v>
+        <v>0.996</v>
       </c>
       <c r="U15" t="n">
-        <v>4.02507142857143</v>
+        <v>4.311999999999997</v>
       </c>
       <c r="V15" t="n">
-        <v>1.588590491845921</v>
+        <v>1.622606965174127</v>
       </c>
       <c r="W15" t="n">
-        <v>0.4654282717282714</v>
+        <v>0.4279999999999998</v>
       </c>
       <c r="X15" t="n">
-        <v>2.892288888888889</v>
+        <v>3.055999999999999</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.4450084355758476</v>
+        <v>0.4619104477611928</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.125682657600048</v>
+        <v>1.200000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1752,67 +1752,67 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.732494195688225</v>
+        <v>0.869233830845771</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01733333333333333</v>
+        <v>0.108</v>
       </c>
       <c r="I16" t="n">
-        <v>1.612806349206348</v>
+        <v>1.912</v>
       </c>
       <c r="J16" t="n">
-        <v>5.059629945510536</v>
+        <v>5.211104477611933</v>
       </c>
       <c r="K16" t="n">
-        <v>2.314738335738335</v>
+        <v>2.324</v>
       </c>
       <c r="L16" t="n">
-        <v>8.660942857142869</v>
+        <v>8.815999999999995</v>
       </c>
       <c r="M16" t="n">
-        <v>7.505923273741174</v>
+        <v>7.721810945273623</v>
       </c>
       <c r="N16" t="n">
-        <v>3.569466666666665</v>
+        <v>3.748000000000002</v>
       </c>
       <c r="O16" t="n">
-        <v>11.83772660133983</v>
+        <v>12.236</v>
       </c>
       <c r="P16" t="n">
-        <v>7.957621122373101</v>
+        <v>7.825432835820884</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.817234920634918</v>
+        <v>4.651999999999998</v>
       </c>
       <c r="R16" t="n">
-        <v>11.54665555555557</v>
+        <v>11.304</v>
       </c>
       <c r="S16" t="n">
-        <v>6.897619809654131</v>
+        <v>6.738646766169143</v>
       </c>
       <c r="T16" t="n">
-        <v>4.110362446812448</v>
+        <v>4.012</v>
       </c>
       <c r="U16" t="n">
-        <v>10.06733546453547</v>
+        <v>10.08</v>
       </c>
       <c r="V16" t="n">
-        <v>4.293697004097854</v>
+        <v>4.234965174129339</v>
       </c>
       <c r="W16" t="n">
-        <v>2.41985800865801</v>
+        <v>2.372000000000001</v>
       </c>
       <c r="X16" t="n">
-        <v>6.458585389757994</v>
+        <v>6.456000000000001</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.020362789658919</v>
+        <v>1.07560199004975</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.2045034445840893</v>
+        <v>0.2159999999999999</v>
       </c>
       <c r="AA16" t="n">
-        <v>2.069725923298894</v>
+        <v>2.168000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1826,76 +1826,76 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.310814814814817</v>
+        <v>1.88867661691542</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2177935406641288</v>
+        <v>0.5839999999999997</v>
       </c>
       <c r="F17" t="n">
-        <v>2.906222222222223</v>
+        <v>3.827999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>9.720012437810949</v>
+        <v>10.39512437810944</v>
       </c>
       <c r="H17" t="n">
-        <v>4.702488888888883</v>
+        <v>5.188000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>15.70795555555558</v>
+        <v>16.87599999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>13.53917062307508</v>
+        <v>13.56441791044774</v>
       </c>
       <c r="K17" t="n">
-        <v>7.58960952380952</v>
+        <v>8.004000000000005</v>
       </c>
       <c r="L17" t="n">
-        <v>19.00689557479558</v>
+        <v>19.184</v>
       </c>
       <c r="M17" t="n">
-        <v>11.58405267027057</v>
+        <v>11.5075422885572</v>
       </c>
       <c r="N17" t="n">
-        <v>7.803521825396826</v>
+        <v>7.632000000000005</v>
       </c>
       <c r="O17" t="n">
-        <v>15.78427958152957</v>
+        <v>15.49600000000001</v>
       </c>
       <c r="P17" t="n">
-        <v>7.782748534386117</v>
+        <v>8.352716417910434</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.910240703534512</v>
+        <v>5.527999999999999</v>
       </c>
       <c r="R17" t="n">
-        <v>11.21060853559726</v>
+        <v>11.588</v>
       </c>
       <c r="S17" t="n">
-        <v>5.624102861690605</v>
+        <v>5.688835820895511</v>
       </c>
       <c r="T17" t="n">
-        <v>3.398434995287937</v>
+        <v>3.244000000000002</v>
       </c>
       <c r="U17" t="n">
-        <v>7.914810748608118</v>
+        <v>8.432</v>
       </c>
       <c r="V17" t="n">
-        <v>3.254300104220309</v>
+        <v>3.024437810945269</v>
       </c>
       <c r="W17" t="n">
-        <v>1.592971728271727</v>
+        <v>1.484</v>
       </c>
       <c r="X17" t="n">
-        <v>5.318276128377984</v>
+        <v>5.067999999999996</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.7305693370246703</v>
+        <v>0.630686567164178</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.094826010906656</v>
+        <v>0.048</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.640514137258026</v>
+        <v>1.484</v>
       </c>
     </row>
     <row r="18">
@@ -1936,49 +1936,49 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.380131011608623</v>
+        <v>1.368557213930347</v>
       </c>
       <c r="N18" t="n">
-        <v>0.275385714285714</v>
+        <v>0.276</v>
       </c>
       <c r="O18" t="n">
-        <v>2.63333333333333</v>
+        <v>2.619999999999998</v>
       </c>
       <c r="P18" t="n">
-        <v>3.230524488667763</v>
+        <v>3.219601990049744</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.412</v>
+        <v>1.4</v>
       </c>
       <c r="R18" t="n">
-        <v>5.611955555555542</v>
+        <v>5.548000000000003</v>
       </c>
       <c r="S18" t="n">
-        <v>3.97428192371475</v>
+        <v>3.961572139303472</v>
       </c>
       <c r="T18" t="n">
-        <v>2.086499999999997</v>
+        <v>2.012</v>
       </c>
       <c r="U18" t="n">
-        <v>6.730666666666668</v>
+        <v>6.604000000000003</v>
       </c>
       <c r="V18" t="n">
-        <v>3.07103687119954</v>
+        <v>3.073273631840786</v>
       </c>
       <c r="W18" t="n">
-        <v>1.258760805860807</v>
+        <v>1.220000000000001</v>
       </c>
       <c r="X18" t="n">
-        <v>5.241400000000001</v>
+        <v>5.260000000000002</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.8693887230514088</v>
+        <v>0.8689154228855713</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.1720999999999997</v>
+        <v>0.18</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.836894179894183</v>
+        <v>1.811999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -1992,76 +1992,76 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>4.96297678275289</v>
+        <v>4.758706467661681</v>
       </c>
       <c r="E19" t="n">
-        <v>2.014895863395865</v>
+        <v>1.923999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>8.879666666666648</v>
+        <v>8.712000000000005</v>
       </c>
       <c r="G19" t="n">
-        <v>26.94019339019181</v>
+        <v>27.23249751243772</v>
       </c>
       <c r="H19" t="n">
-        <v>17.00533333333329</v>
+        <v>17.14400000000002</v>
       </c>
       <c r="I19" t="n">
-        <v>37.9009291005291</v>
+        <v>38.21599999999998</v>
       </c>
       <c r="J19" t="n">
-        <v>22.53761629365649</v>
+        <v>22.78053731343272</v>
       </c>
       <c r="K19" t="n">
-        <v>17.13247707205076</v>
+        <v>17.07600000000001</v>
       </c>
       <c r="L19" t="n">
-        <v>27.94013607133608</v>
+        <v>27.9</v>
       </c>
       <c r="M19" t="n">
-        <v>11.53162819631998</v>
+        <v>11.73558208955222</v>
       </c>
       <c r="N19" t="n">
-        <v>6.912450000000006</v>
+        <v>7.328000000000002</v>
       </c>
       <c r="O19" t="n">
-        <v>16.61080003330004</v>
+        <v>16.54800000000001</v>
       </c>
       <c r="P19" t="n">
-        <v>4.880975687676846</v>
+        <v>4.991741293532335</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.665280952380953</v>
+        <v>1.919999999999999</v>
       </c>
       <c r="R19" t="n">
-        <v>9.057181673432932</v>
+        <v>8.639999999999993</v>
       </c>
       <c r="S19" t="n">
-        <v>1.824470897556469</v>
+        <v>1.941393034825868</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3257831536655063</v>
+        <v>0.3959999999999999</v>
       </c>
       <c r="U19" t="n">
-        <v>4.222723809523808</v>
+        <v>4.251999999999999</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5848709867431253</v>
+        <v>0.6315422885572125</v>
       </c>
       <c r="W19" t="n">
-        <v>0.0004444444444444445</v>
+        <v>0.008</v>
       </c>
       <c r="X19" t="n">
-        <v>1.742333333333332</v>
+        <v>1.787999999999998</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.06173030877359222</v>
+        <v>0.06720398009950229</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.3408888888888889</v>
+        <v>0.4039999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -2075,76 +2075,76 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7284493142751842</v>
+        <v>0.764039800995024</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07490147717206538</v>
+        <v>0.04</v>
       </c>
       <c r="F20" t="n">
-        <v>1.580742857142857</v>
+        <v>1.612000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>4.910485742643196</v>
+        <v>4.860716417910441</v>
       </c>
       <c r="H20" t="n">
-        <v>2.215579220779222</v>
+        <v>2.320000000000002</v>
       </c>
       <c r="I20" t="n">
-        <v>8.308178354978356</v>
+        <v>8.076000000000004</v>
       </c>
       <c r="J20" t="n">
-        <v>7.634601942667604</v>
+        <v>7.589313432835805</v>
       </c>
       <c r="K20" t="n">
-        <v>3.793400529100532</v>
+        <v>4.075999999999998</v>
       </c>
       <c r="L20" t="n">
-        <v>12.17439021349022</v>
+        <v>11.85200000000001</v>
       </c>
       <c r="M20" t="n">
-        <v>7.853210535775144</v>
+        <v>7.801134328358187</v>
       </c>
       <c r="N20" t="n">
-        <v>4.489228643578644</v>
+        <v>4.400000000000002</v>
       </c>
       <c r="O20" t="n">
-        <v>11.80142031318354</v>
+        <v>11.72800000000001</v>
       </c>
       <c r="P20" t="n">
-        <v>7.434816449475579</v>
+        <v>6.953014925373123</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.437926316167492</v>
+        <v>4.14</v>
       </c>
       <c r="R20" t="n">
-        <v>10.6684448939319</v>
+        <v>10.092</v>
       </c>
       <c r="S20" t="n">
-        <v>5.610808874914527</v>
+        <v>5.62248756218904</v>
       </c>
       <c r="T20" t="n">
-        <v>3.373808588361529</v>
+        <v>3.247999999999998</v>
       </c>
       <c r="U20" t="n">
-        <v>7.962786506183876</v>
+        <v>8.163999999999994</v>
       </c>
       <c r="V20" t="n">
-        <v>3.39194960500513</v>
+        <v>3.496915422885563</v>
       </c>
       <c r="W20" t="n">
-        <v>1.739795004995005</v>
+        <v>1.775999999999998</v>
       </c>
       <c r="X20" t="n">
-        <v>5.269276128377985</v>
+        <v>5.303999999999998</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.8167056842443653</v>
+        <v>0.8665671641791031</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.1277242172754505</v>
+        <v>0.1360000000000001</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.7478317122756</v>
+        <v>1.807999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -2158,76 +2158,76 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.0158009950248756</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G21" t="n">
-        <v>1.495206846718786</v>
+        <v>1.346089552238805</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3857973951973952</v>
+        <v>0.3759999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>2.984620634920639</v>
+        <v>2.679999999999998</v>
       </c>
       <c r="J21" t="n">
-        <v>3.285857536272443</v>
+        <v>3.202089552238788</v>
       </c>
       <c r="K21" t="n">
-        <v>1.419011111111113</v>
+        <v>1.392</v>
       </c>
       <c r="L21" t="n">
-        <v>5.575059592259585</v>
+        <v>5.452000000000002</v>
       </c>
       <c r="M21" t="n">
-        <v>4.049384532907657</v>
+        <v>4.069393034825868</v>
       </c>
       <c r="N21" t="n">
-        <v>1.861071423021422</v>
+        <v>1.712</v>
       </c>
       <c r="O21" t="n">
-        <v>6.701686102786097</v>
+        <v>6.548000000000003</v>
       </c>
       <c r="P21" t="n">
-        <v>4.325096514301976</v>
+        <v>4.285233830845764</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.219048051948052</v>
+        <v>1.92</v>
       </c>
       <c r="R21" t="n">
-        <v>6.867405820105816</v>
+        <v>6.708000000000001</v>
       </c>
       <c r="S21" t="n">
-        <v>3.96700073442311</v>
+        <v>3.9590646766169</v>
       </c>
       <c r="T21" t="n">
-        <v>2.148750937950934</v>
+        <v>2.136000000000001</v>
       </c>
       <c r="U21" t="n">
-        <v>6.262804473304474</v>
+        <v>6.087999999999999</v>
       </c>
       <c r="V21" t="n">
-        <v>2.695355660353255</v>
+        <v>2.658288557213928</v>
       </c>
       <c r="W21" t="n">
-        <v>1.291953096903097</v>
+        <v>1.356</v>
       </c>
       <c r="X21" t="n">
-        <v>4.442736075036077</v>
+        <v>4.420000000000003</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.7099388764943636</v>
+        <v>0.6990845771144266</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.01608888888888889</v>
+        <v>0.004</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.545072451284526</v>
+        <v>1.451999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2259,58 +2259,58 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>40.90149051535581</v>
+        <v>42.30815920398005</v>
       </c>
       <c r="K22" t="n">
-        <v>25.92874812594814</v>
+        <v>26.572</v>
       </c>
       <c r="L22" t="n">
-        <v>56.77462627645263</v>
+        <v>57.64799999999998</v>
       </c>
       <c r="M22" t="n">
-        <v>28.89288294243056</v>
+        <v>28.63160199004964</v>
       </c>
       <c r="N22" t="n">
-        <v>21.35932343358397</v>
+        <v>21.11599999999999</v>
       </c>
       <c r="O22" t="n">
-        <v>35.28900128205132</v>
+        <v>35.24399999999999</v>
       </c>
       <c r="P22" t="n">
-        <v>7.249052546789846</v>
+        <v>7.263741293532341</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.442200000000001</v>
+        <v>2.448000000000002</v>
       </c>
       <c r="R22" t="n">
-        <v>13.41061851851852</v>
+        <v>13.32</v>
       </c>
       <c r="S22" t="n">
-        <v>1.645502140093183</v>
+        <v>1.630388059701491</v>
       </c>
       <c r="T22" t="n">
-        <v>0.09105714285714278</v>
+        <v>0.07200000000000002</v>
       </c>
       <c r="U22" t="n">
-        <v>4.902366666666667</v>
+        <v>4.892000000000003</v>
       </c>
       <c r="V22" t="n">
-        <v>0.3098580378530614</v>
+        <v>0.3102885572139295</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.384333333333333</v>
+        <v>1.408</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.03171509001409489</v>
+        <v>0.02885572139303468</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.2120548821548817</v>
+        <v>0.2079999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -2324,76 +2324,76 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3083781647318944</v>
+        <v>0.3441393034825858</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0554305777011659</v>
+        <v>0.036</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8807777777777765</v>
+        <v>0.9319999999999996</v>
       </c>
       <c r="G23" t="n">
-        <v>1.384338383479427</v>
+        <v>1.36907462686567</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2568284271284271</v>
+        <v>0.2359999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>2.842375661375662</v>
+        <v>2.832</v>
       </c>
       <c r="J23" t="n">
-        <v>2.051157056873471</v>
+        <v>2.066606965174124</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6008851851851849</v>
+        <v>0.6040000000000005</v>
       </c>
       <c r="L23" t="n">
-        <v>3.94764334924335</v>
+        <v>3.996000000000001</v>
       </c>
       <c r="M23" t="n">
-        <v>2.379564041265526</v>
+        <v>2.386189054726363</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9205952380952377</v>
+        <v>0.968</v>
       </c>
       <c r="O23" t="n">
-        <v>4.334392784992787</v>
+        <v>4.359999999999999</v>
       </c>
       <c r="P23" t="n">
-        <v>2.494993798002245</v>
+        <v>2.484019900497503</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.8483587301587301</v>
+        <v>0.8599999999999999</v>
       </c>
       <c r="R23" t="n">
-        <v>4.454195238095238</v>
+        <v>4.407999999999997</v>
       </c>
       <c r="S23" t="n">
-        <v>2.34824983692687</v>
+        <v>2.323164179104467</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8364501202501188</v>
+        <v>0.8079999999999998</v>
       </c>
       <c r="U23" t="n">
-        <v>4.285066666666666</v>
+        <v>4.084000000000001</v>
       </c>
       <c r="V23" t="n">
-        <v>1.618192290120267</v>
+        <v>1.626686567164179</v>
       </c>
       <c r="W23" t="n">
-        <v>0.5224397663739767</v>
+        <v>0.5640000000000004</v>
       </c>
       <c r="X23" t="n">
-        <v>3.04495714685947</v>
+        <v>3.008</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.4486061676867385</v>
+        <v>0.4386865671641781</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.211416533466533</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="24">
@@ -2416,67 +2416,67 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7285936981757872</v>
+        <v>0.8969154228855716</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01866666666666667</v>
+        <v>0.128</v>
       </c>
       <c r="I24" t="n">
-        <v>1.612806349206348</v>
+        <v>1.932</v>
       </c>
       <c r="J24" t="n">
-        <v>5.099218668561944</v>
+        <v>5.212756218905465</v>
       </c>
       <c r="K24" t="n">
-        <v>2.386095238095238</v>
+        <v>2.284</v>
       </c>
       <c r="L24" t="n">
-        <v>8.642109523809534</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>7.507836706576995</v>
+        <v>7.719402985074616</v>
       </c>
       <c r="N24" t="n">
-        <v>3.572533333333332</v>
+        <v>3.760000000000003</v>
       </c>
       <c r="O24" t="n">
-        <v>11.88821341452665</v>
+        <v>12.192</v>
       </c>
       <c r="P24" t="n">
-        <v>7.964006970908202</v>
+        <v>7.819999999999989</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.85549206349206</v>
+        <v>4.679999999999997</v>
       </c>
       <c r="R24" t="n">
-        <v>11.53865555555556</v>
+        <v>11.304</v>
       </c>
       <c r="S24" t="n">
-        <v>6.897124508382709</v>
+        <v>6.717751243781083</v>
       </c>
       <c r="T24" t="n">
-        <v>4.109029113479114</v>
+        <v>4.020000000000001</v>
       </c>
       <c r="U24" t="n">
-        <v>10.06733546453547</v>
+        <v>10.036</v>
       </c>
       <c r="V24" t="n">
-        <v>4.298418704652039</v>
+        <v>4.238845771144264</v>
       </c>
       <c r="W24" t="n">
-        <v>2.421858008658011</v>
+        <v>2.348000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>6.503685389757994</v>
+        <v>6.491999999999999</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.020253263217054</v>
+        <v>1.073154228855721</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.203170111250756</v>
+        <v>0.2159999999999999</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.042671755208451</v>
+        <v>2.136000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -2508,58 +2508,58 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6747016109926548</v>
+        <v>0.6668457711442782</v>
       </c>
       <c r="K25" t="n">
-        <v>0.004000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.657241269841268</v>
+        <v>1.643999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>4.913281592039792</v>
+        <v>4.940696517412925</v>
       </c>
       <c r="N25" t="n">
-        <v>2.190999999999997</v>
+        <v>2.192000000000002</v>
       </c>
       <c r="O25" t="n">
-        <v>8.761333333333338</v>
+        <v>8.680000000000005</v>
       </c>
       <c r="P25" t="n">
-        <v>7.450968601437267</v>
+        <v>7.421731343283579</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.557666666666669</v>
+        <v>3.540000000000002</v>
       </c>
       <c r="R25" t="n">
-        <v>11.93150317460316</v>
+        <v>11.73600000000001</v>
       </c>
       <c r="S25" t="n">
-        <v>7.167581193599105</v>
+        <v>7.159144278606959</v>
       </c>
       <c r="T25" t="n">
-        <v>4.033866666666665</v>
+        <v>4.06</v>
       </c>
       <c r="U25" t="n">
-        <v>10.95270915750916</v>
+        <v>10.796</v>
       </c>
       <c r="V25" t="n">
-        <v>5.066559109105371</v>
+        <v>5.054129353233829</v>
       </c>
       <c r="W25" t="n">
-        <v>2.883857142857144</v>
+        <v>2.891999999999999</v>
       </c>
       <c r="X25" t="n">
-        <v>7.609598297258298</v>
+        <v>7.467999999999996</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.322283158004374</v>
+        <v>1.318547263681591</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.4030751322751314</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.513187792985045</v>
+        <v>2.524</v>
       </c>
     </row>
     <row r="26">
@@ -2573,76 +2573,76 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.00825870646766168</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G26" t="n">
-        <v>1.408395640843401</v>
+        <v>1.305552238805969</v>
       </c>
       <c r="H26" t="n">
-        <v>0.315465937765938</v>
+        <v>0.2239999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>2.973109523809526</v>
+        <v>2.868000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>3.227121217864485</v>
+        <v>3.258189054726352</v>
       </c>
       <c r="K26" t="n">
-        <v>1.277042328042329</v>
+        <v>1.248</v>
       </c>
       <c r="L26" t="n">
-        <v>5.746511444111436</v>
+        <v>6.04</v>
       </c>
       <c r="M26" t="n">
-        <v>4.034151685241229</v>
+        <v>4.107840796019889</v>
       </c>
       <c r="N26" t="n">
-        <v>1.981804756354756</v>
+        <v>2.084000000000001</v>
       </c>
       <c r="O26" t="n">
-        <v>6.922995626595623</v>
+        <v>7.031999999999997</v>
       </c>
       <c r="P26" t="n">
-        <v>4.381321799372539</v>
+        <v>4.383502487562189</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.965637085137085</v>
+        <v>2.260000000000002</v>
       </c>
       <c r="R26" t="n">
-        <v>7.054529148629154</v>
+        <v>6.972</v>
       </c>
       <c r="S26" t="n">
-        <v>4.056475587191493</v>
+        <v>4.075502487562177</v>
       </c>
       <c r="T26" t="n">
-        <v>1.951062461612463</v>
+        <v>2.096000000000001</v>
       </c>
       <c r="U26" t="n">
-        <v>6.557271073371076</v>
+        <v>6.468</v>
       </c>
       <c r="V26" t="n">
-        <v>2.748585285196806</v>
+        <v>2.782248756218895</v>
       </c>
       <c r="W26" t="n">
-        <v>1.264950627150628</v>
+        <v>1.348</v>
       </c>
       <c r="X26" t="n">
-        <v>4.691603607503608</v>
+        <v>4.808000000000002</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.7280602283689487</v>
+        <v>0.7196218905472621</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.01515555555555556</v>
+        <v>0.008</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.57160347060347</v>
+        <v>1.576</v>
       </c>
     </row>
     <row r="27">
@@ -2656,76 +2656,76 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>34.38488225538957</v>
+        <v>34.10951243781087</v>
       </c>
       <c r="E27" t="n">
-        <v>20.09993333333334</v>
+        <v>20.21199999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>48.39866666666679</v>
+        <v>48.29199999999995</v>
       </c>
       <c r="G27" t="n">
-        <v>31.24593532338299</v>
+        <v>31.28857711442772</v>
       </c>
       <c r="H27" t="n">
-        <v>24.02284761904767</v>
+        <v>23.86399999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>37.65404444444449</v>
+        <v>37.59199999999998</v>
       </c>
       <c r="J27" t="n">
-        <v>10.43522388059701</v>
+        <v>10.51516417910447</v>
       </c>
       <c r="K27" t="n">
-        <v>5.124692063492065</v>
+        <v>5.215999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>16.74166666666663</v>
+        <v>16.99600000000001</v>
       </c>
       <c r="M27" t="n">
-        <v>2.80599625681117</v>
+        <v>2.888398009950234</v>
       </c>
       <c r="N27" t="n">
-        <v>0.5136166666666668</v>
+        <v>0.6160000000000001</v>
       </c>
       <c r="O27" t="n">
-        <v>6.421496031746033</v>
+        <v>6.571999999999996</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7489248124457074</v>
+        <v>0.763223880597014</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>2.600271957671958</v>
+        <v>2.576000000000001</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1762814717896808</v>
+        <v>0.2040597014925372</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.8628634920634917</v>
+        <v>0.9919999999999999</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0341454851660915</v>
+        <v>0.03960199004975106</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.2114285714285714</v>
+        <v>0.2239999999999999</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.004332645494035284</v>
+        <v>0.005791044776119386</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.07615950504155507</v>
+        <v>0.1440000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -2757,58 +2757,58 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>10.26258573797678</v>
+        <v>10.12250746268657</v>
       </c>
       <c r="K28" t="n">
-        <v>5.252377777777772</v>
+        <v>5.236000000000002</v>
       </c>
       <c r="L28" t="n">
-        <v>18.00327301587303</v>
+        <v>17.77599999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>20.06718416646917</v>
+        <v>20.05986069651735</v>
       </c>
       <c r="N28" t="n">
-        <v>12.69877756132756</v>
+        <v>12.128</v>
       </c>
       <c r="O28" t="n">
-        <v>28.33226666666667</v>
+        <v>28.34800000000001</v>
       </c>
       <c r="P28" t="n">
-        <v>15.85260410552001</v>
+        <v>16.00171144278605</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.31663564050328</v>
+        <v>11.348</v>
       </c>
       <c r="R28" t="n">
-        <v>20.09106137923536</v>
+        <v>20.23600000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>9.473115288088188</v>
+        <v>9.818328358208948</v>
       </c>
       <c r="T28" t="n">
-        <v>6.454877016847041</v>
+        <v>6.436</v>
       </c>
       <c r="U28" t="n">
-        <v>12.82370512265512</v>
+        <v>12.908</v>
       </c>
       <c r="V28" t="n">
-        <v>4.414605661468952</v>
+        <v>4.365930348258702</v>
       </c>
       <c r="W28" t="n">
-        <v>2.188180952380951</v>
+        <v>2.184000000000001</v>
       </c>
       <c r="X28" t="n">
-        <v>7.343833107284873</v>
+        <v>7.04</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.850454706929334</v>
+        <v>0.8532537313432826</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.02666666666666668</v>
+        <v>0.02</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.867031815044859</v>
+        <v>1.907999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -2822,76 +2822,76 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8271830845771138</v>
+        <v>0.6932139303482573</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2489167753814812</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>1.80630158730159</v>
+        <v>1.579999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>1.746959188186053</v>
+        <v>1.68825870646766</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5151402116402116</v>
+        <v>0.488</v>
       </c>
       <c r="I29" t="n">
-        <v>3.316060317460315</v>
+        <v>3.172000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>2.284344194777026</v>
+        <v>2.308696517412929</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7394582010582003</v>
+        <v>0.7280000000000004</v>
       </c>
       <c r="L29" t="n">
-        <v>3.96295446035446</v>
+        <v>4.076000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>2.619601243781085</v>
+        <v>2.622547263681581</v>
       </c>
       <c r="N29" t="n">
-        <v>1.022261904761905</v>
+        <v>1.08</v>
       </c>
       <c r="O29" t="n">
-        <v>4.684842857142864</v>
+        <v>4.684000000000003</v>
       </c>
       <c r="P29" t="n">
-        <v>2.567577101063658</v>
+        <v>2.594467661691531</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.9654158730158729</v>
+        <v>1.044</v>
       </c>
       <c r="R29" t="n">
-        <v>4.505444444444446</v>
+        <v>4.559999999999998</v>
       </c>
       <c r="S29" t="n">
-        <v>2.344394156233875</v>
+        <v>2.34997014925372</v>
       </c>
       <c r="T29" t="n">
-        <v>0.883155747955747</v>
+        <v>0.9239999999999998</v>
       </c>
       <c r="U29" t="n">
-        <v>4.276533333333334</v>
+        <v>4.316000000000003</v>
       </c>
       <c r="V29" t="n">
-        <v>1.616828496230894</v>
+        <v>1.615900497512438</v>
       </c>
       <c r="W29" t="n">
-        <v>0.5243916056166057</v>
+        <v>0.5560000000000003</v>
       </c>
       <c r="X29" t="n">
-        <v>3.07220873015873</v>
+        <v>3.116</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.4164757776772682</v>
+        <v>0.4132935323383068</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.110493060643061</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="30">
@@ -2905,76 +2905,76 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.02654726368159204</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="G30" t="n">
-        <v>5.307066808813059</v>
+        <v>5.408019900497496</v>
       </c>
       <c r="H30" t="n">
-        <v>2.304530158730156</v>
+        <v>2.376000000000002</v>
       </c>
       <c r="I30" t="n">
-        <v>9.562822222222227</v>
+        <v>9.659999999999995</v>
       </c>
       <c r="J30" t="n">
-        <v>12.72696384742951</v>
+        <v>12.53918407960198</v>
       </c>
       <c r="K30" t="n">
-        <v>6.836212698412703</v>
+        <v>7.016000000000004</v>
       </c>
       <c r="L30" t="n">
-        <v>19.11675271765273</v>
+        <v>19.14799999999998</v>
       </c>
       <c r="M30" t="n">
-        <v>12.90354007948933</v>
+        <v>12.71942288557213</v>
       </c>
       <c r="N30" t="n">
-        <v>8.039373701298704</v>
+        <v>8.088000000000006</v>
       </c>
       <c r="O30" t="n">
-        <v>17.6421871073371</v>
+        <v>17.42</v>
       </c>
       <c r="P30" t="n">
-        <v>9.757757624448379</v>
+        <v>10.00131343283581</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.514769812007739</v>
+        <v>7.071999999999997</v>
       </c>
       <c r="R30" t="n">
-        <v>13.08978616785468</v>
+        <v>13.37999999999999</v>
       </c>
       <c r="S30" t="n">
-        <v>6.576608753589217</v>
+        <v>6.970009950248745</v>
       </c>
       <c r="T30" t="n">
-        <v>4.368277419161307</v>
+        <v>4.407999999999998</v>
       </c>
       <c r="U30" t="n">
-        <v>9.045112321914038</v>
+        <v>9.468000000000002</v>
       </c>
       <c r="V30" t="n">
-        <v>3.878212396585158</v>
+        <v>3.82296517412935</v>
       </c>
       <c r="W30" t="n">
-        <v>2.120589826839826</v>
+        <v>2.128000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>5.851808515156848</v>
+        <v>5.972</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.9134506442719644</v>
+        <v>0.830427860696517</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.1981044546850994</v>
+        <v>0.196</v>
       </c>
       <c r="AA30" t="n">
-        <v>2.011940242823216</v>
+        <v>1.927999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3006,58 +3006,58 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>27.06684546589387</v>
+        <v>25.60423880597002</v>
       </c>
       <c r="K31" t="n">
-        <v>14.84237509157509</v>
+        <v>14.30800000000001</v>
       </c>
       <c r="L31" t="n">
-        <v>40.01283785473784</v>
+        <v>39.14800000000003</v>
       </c>
       <c r="M31" t="n">
-        <v>31.28605830899769</v>
+        <v>30.86095522388054</v>
       </c>
       <c r="N31" t="n">
-        <v>24.27245919897096</v>
+        <v>24.068</v>
       </c>
       <c r="O31" t="n">
-        <v>36.72547220557219</v>
+        <v>36.46400000000002</v>
       </c>
       <c r="P31" t="n">
-        <v>14.49083747105051</v>
+        <v>13.88061691542288</v>
       </c>
       <c r="Q31" t="n">
-        <v>8.555701213818864</v>
+        <v>8.456000000000003</v>
       </c>
       <c r="R31" t="n">
-        <v>19.67431041081382</v>
+        <v>19.58399999999999</v>
       </c>
       <c r="S31" t="n">
-        <v>4.58179129221616</v>
+        <v>4.522706467661678</v>
       </c>
       <c r="T31" t="n">
-        <v>1.484759259259262</v>
+        <v>1.368</v>
       </c>
       <c r="U31" t="n">
-        <v>8.492000000000004</v>
+        <v>8.536000000000005</v>
       </c>
       <c r="V31" t="n">
-        <v>1.058133775566612</v>
+        <v>1.048915422885572</v>
       </c>
       <c r="W31" t="n">
-        <v>0.03000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>2.796799999999999</v>
+        <v>2.819999999999999</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.1041118060491193</v>
+        <v>0.1035223880597013</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.5472816738816738</v>
+        <v>0.5560000000000003</v>
       </c>
     </row>
     <row r="32">
@@ -3089,58 +3089,58 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.33453930348258</v>
+        <v>11.49389054726367</v>
       </c>
       <c r="K32" t="n">
-        <v>5.373111111111108</v>
+        <v>5.412000000000001</v>
       </c>
       <c r="L32" t="n">
-        <v>18.03166666666663</v>
+        <v>18.16400000000001</v>
       </c>
       <c r="M32" t="n">
-        <v>39.86821536409018</v>
+        <v>41.77000995024873</v>
       </c>
       <c r="N32" t="n">
-        <v>27.75531832464063</v>
+        <v>28.19999999999999</v>
       </c>
       <c r="O32" t="n">
-        <v>52.66664841269838</v>
+        <v>53.124</v>
       </c>
       <c r="P32" t="n">
-        <v>18.49393787081768</v>
+        <v>18.16378109452736</v>
       </c>
       <c r="Q32" t="n">
-        <v>12.05038095238095</v>
+        <v>12.13999999999999</v>
       </c>
       <c r="R32" t="n">
-        <v>25.47545345601537</v>
+        <v>24.91200000000002</v>
       </c>
       <c r="S32" t="n">
-        <v>4.733253225933816</v>
+        <v>4.845492537313426</v>
       </c>
       <c r="T32" t="n">
-        <v>1.440540740740743</v>
+        <v>1.456</v>
       </c>
       <c r="U32" t="n">
-        <v>9.658628571428569</v>
+        <v>9.483999999999996</v>
       </c>
       <c r="V32" t="n">
-        <v>0.9371655531864462</v>
+        <v>0.9403184079601982</v>
       </c>
       <c r="W32" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>2.869999999999999</v>
+        <v>2.811999999999999</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.08112941641001331</v>
+        <v>0.08266666666666653</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.3892807692307687</v>
+        <v>0.4079999999999998</v>
       </c>
     </row>
     <row r="33">
@@ -3163,67 +3163,67 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>7.772218905472637</v>
+        <v>7.880477611940284</v>
       </c>
       <c r="H33" t="n">
-        <v>3.158666666666667</v>
+        <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>13.63200000000004</v>
+        <v>13.75599999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>35.93660540012772</v>
+        <v>36.00499502487552</v>
       </c>
       <c r="K33" t="n">
-        <v>23.95620010927038</v>
+        <v>24.136</v>
       </c>
       <c r="L33" t="n">
-        <v>45.85072962962961</v>
+        <v>47.37599999999998</v>
       </c>
       <c r="M33" t="n">
-        <v>21.80153195925132</v>
+        <v>21.74507462686562</v>
       </c>
       <c r="N33" t="n">
-        <v>15.63026666666668</v>
+        <v>15.58799999999999</v>
       </c>
       <c r="O33" t="n">
-        <v>27.04278662171162</v>
+        <v>27.15600000000002</v>
       </c>
       <c r="P33" t="n">
-        <v>8.155819877413906</v>
+        <v>8.100159203980089</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.388999999999998</v>
+        <v>3.511999999999998</v>
       </c>
       <c r="R33" t="n">
-        <v>13.28491067355646</v>
+        <v>13.39600000000001</v>
       </c>
       <c r="S33" t="n">
-        <v>2.317703064044851</v>
+        <v>2.441751243781086</v>
       </c>
       <c r="T33" t="n">
-        <v>0.347367195767195</v>
+        <v>0.4399999999999998</v>
       </c>
       <c r="U33" t="n">
-        <v>5.311878787878791</v>
+        <v>5.464000000000002</v>
       </c>
       <c r="V33" t="n">
-        <v>0.5266306720366416</v>
+        <v>0.5638407960198994</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="X33" t="n">
-        <v>1.746019047619047</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.05399254784279656</v>
+        <v>0.06286567164179087</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.3721124338624331</v>
+        <v>0.4079999999999998</v>
       </c>
     </row>
     <row r="34">
@@ -3237,76 +3237,76 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>10.56136650082918</v>
+        <v>9.651542288557206</v>
       </c>
       <c r="E34" t="n">
-        <v>4.958821693121688</v>
+        <v>4.500000000000004</v>
       </c>
       <c r="F34" t="n">
-        <v>17.9186666666667</v>
+        <v>16.564</v>
       </c>
       <c r="G34" t="n">
-        <v>19.96267164179089</v>
+        <v>20.01203980099488</v>
       </c>
       <c r="H34" t="n">
-        <v>12.92400000000001</v>
+        <v>12.808</v>
       </c>
       <c r="I34" t="n">
-        <v>28.37208888888893</v>
+        <v>28.42799999999998</v>
       </c>
       <c r="J34" t="n">
-        <v>16.8547829424307</v>
+        <v>16.75482587064677</v>
       </c>
       <c r="K34" t="n">
-        <v>12.28758867058867</v>
+        <v>12.016</v>
       </c>
       <c r="L34" t="n">
-        <v>21.28808835978837</v>
+        <v>21.42400000000001</v>
       </c>
       <c r="M34" t="n">
-        <v>10.0683049869699</v>
+        <v>10.76919402985073</v>
       </c>
       <c r="N34" t="n">
-        <v>6.8794</v>
+        <v>7.308000000000001</v>
       </c>
       <c r="O34" t="n">
-        <v>13.53268981018981</v>
+        <v>14.148</v>
       </c>
       <c r="P34" t="n">
-        <v>6.417829352614236</v>
+        <v>6.015164179104464</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.892220168720168</v>
+        <v>3.108</v>
       </c>
       <c r="R34" t="n">
-        <v>9.433617842546168</v>
+        <v>9.355999999999993</v>
       </c>
       <c r="S34" t="n">
-        <v>3.440150894985249</v>
+        <v>3.093751243781077</v>
       </c>
       <c r="T34" t="n">
-        <v>1.118894627594628</v>
+        <v>1.08</v>
       </c>
       <c r="U34" t="n">
-        <v>6.254410778110777</v>
+        <v>5.712</v>
       </c>
       <c r="V34" t="n">
-        <v>1.428919316185641</v>
+        <v>1.344457711442784</v>
       </c>
       <c r="W34" t="n">
-        <v>0.2263380952380949</v>
+        <v>0.2279999999999999</v>
       </c>
       <c r="X34" t="n">
-        <v>3.198427938727939</v>
+        <v>3.048000000000002</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.2347156045170956</v>
+        <v>0.2371940298507446</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.9788004662004666</v>
+        <v>0.9919999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3320,76 +3320,76 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.0275820895522388</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>2.714870303245672</v>
+        <v>2.617452736318406</v>
       </c>
       <c r="H35" t="n">
-        <v>1.066130687830688</v>
+        <v>1.012</v>
       </c>
       <c r="I35" t="n">
-        <v>4.856274074074068</v>
+        <v>4.676000000000002</v>
       </c>
       <c r="J35" t="n">
-        <v>6.465260617547164</v>
+        <v>6.415781094527343</v>
       </c>
       <c r="K35" t="n">
-        <v>3.232996296296299</v>
+        <v>3.024</v>
       </c>
       <c r="L35" t="n">
-        <v>10.24928107448106</v>
+        <v>10.108</v>
       </c>
       <c r="M35" t="n">
-        <v>7.854503373175445</v>
+        <v>7.826726368159191</v>
       </c>
       <c r="N35" t="n">
-        <v>4.418243578643574</v>
+        <v>4.380000000000003</v>
       </c>
       <c r="O35" t="n">
-        <v>11.92197531928855</v>
+        <v>11.74</v>
       </c>
       <c r="P35" t="n">
-        <v>7.516529278077719</v>
+        <v>7.264457711442772</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.589118797868798</v>
+        <v>4.259999999999998</v>
       </c>
       <c r="R35" t="n">
-        <v>10.60792877578958</v>
+        <v>10.27999999999999</v>
       </c>
       <c r="S35" t="n">
-        <v>6.319577898245926</v>
+        <v>6.094208955223864</v>
       </c>
       <c r="T35" t="n">
-        <v>3.937564740052977</v>
+        <v>3.752000000000001</v>
       </c>
       <c r="U35" t="n">
-        <v>9.029064702866417</v>
+        <v>8.676000000000005</v>
       </c>
       <c r="V35" t="n">
-        <v>3.877083558259302</v>
+        <v>3.851681592039784</v>
       </c>
       <c r="W35" t="n">
-        <v>2.009324819624819</v>
+        <v>1.895999999999999</v>
       </c>
       <c r="X35" t="n">
-        <v>5.815094229442564</v>
+        <v>5.876</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.9287594933034651</v>
+        <v>0.9717611940298494</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.1993266769073216</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="AA35" t="n">
-        <v>2.001576357217173</v>
+        <v>1.919999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3421,58 +3421,58 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.636278606965163</v>
+        <v>2.538925373134318</v>
       </c>
       <c r="K36" t="n">
-        <v>0.8633333333333316</v>
+        <v>0.7839999999999998</v>
       </c>
       <c r="L36" t="n">
-        <v>5.079333333333333</v>
+        <v>4.9</v>
       </c>
       <c r="M36" t="n">
-        <v>17.80522897417671</v>
+        <v>17.56485572139304</v>
       </c>
       <c r="N36" t="n">
-        <v>9.472733333333336</v>
+        <v>9.231999999999996</v>
       </c>
       <c r="O36" t="n">
-        <v>27.95642619047619</v>
+        <v>27.352</v>
       </c>
       <c r="P36" t="n">
-        <v>19.40917185416939</v>
+        <v>18.88823880597014</v>
       </c>
       <c r="Q36" t="n">
-        <v>12.75394285714285</v>
+        <v>12.58799999999999</v>
       </c>
       <c r="R36" t="n">
-        <v>25.12327944669711</v>
+        <v>24.85999999999998</v>
       </c>
       <c r="S36" t="n">
-        <v>11.30627606134771</v>
+        <v>12.38634825870646</v>
       </c>
       <c r="T36" t="n">
-        <v>7.969234007910144</v>
+        <v>9.303999999999991</v>
       </c>
       <c r="U36" t="n">
-        <v>15.29961416293283</v>
+        <v>15.91599999999999</v>
       </c>
       <c r="V36" t="n">
-        <v>5.876183069701284</v>
+        <v>5.751920398009933</v>
       </c>
       <c r="W36" t="n">
-        <v>3.102029437229438</v>
+        <v>2.912</v>
       </c>
       <c r="X36" t="n">
-        <v>8.793482618166149</v>
+        <v>8.880000000000004</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.081866299758837</v>
+        <v>1.08555223880597</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.165333333333333</v>
+        <v>0.2039999999999999</v>
       </c>
       <c r="AA36" t="n">
-        <v>2.299967072380115</v>
+        <v>2.364000000000002</v>
       </c>
     </row>
     <row r="37">
@@ -3486,76 +3486,76 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4031268656716411</v>
+        <v>0.5654129353233824</v>
       </c>
       <c r="E37" t="n">
-        <v>0.05838295865354685</v>
+        <v>0.06</v>
       </c>
       <c r="F37" t="n">
-        <v>1.049226262626263</v>
+        <v>1.272</v>
       </c>
       <c r="G37" t="n">
-        <v>2.351805650319823</v>
+        <v>2.547283582089547</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8722747955747957</v>
+        <v>0.9959999999999996</v>
       </c>
       <c r="I37" t="n">
-        <v>4.273444444444442</v>
+        <v>4.559999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>3.779448092868976</v>
+        <v>3.868935323383072</v>
       </c>
       <c r="K37" t="n">
-        <v>1.605807984607987</v>
+        <v>1.704</v>
       </c>
       <c r="L37" t="n">
-        <v>6.352495685795685</v>
+        <v>6.364</v>
       </c>
       <c r="M37" t="n">
-        <v>4.519218364526568</v>
+        <v>4.458547263681587</v>
       </c>
       <c r="N37" t="n">
-        <v>2.212196753246752</v>
+        <v>2.208000000000002</v>
       </c>
       <c r="O37" t="n">
-        <v>7.456736435786439</v>
+        <v>7.467999999999998</v>
       </c>
       <c r="P37" t="n">
-        <v>4.342233618583358</v>
+        <v>4.38595024875621</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.196239216339217</v>
+        <v>2.256000000000001</v>
       </c>
       <c r="R37" t="n">
-        <v>6.977024867724861</v>
+        <v>6.904000000000002</v>
       </c>
       <c r="S37" t="n">
-        <v>3.757554881676259</v>
+        <v>3.781611940298489</v>
       </c>
       <c r="T37" t="n">
-        <v>1.93137691197691</v>
+        <v>2.008</v>
       </c>
       <c r="U37" t="n">
-        <v>6.40677113997114</v>
+        <v>6.392000000000001</v>
       </c>
       <c r="V37" t="n">
-        <v>2.554896686842127</v>
+        <v>2.518507462686558</v>
       </c>
       <c r="W37" t="n">
-        <v>1.202509734709736</v>
+        <v>1.164000000000001</v>
       </c>
       <c r="X37" t="n">
-        <v>4.24874126984127</v>
+        <v>4.228</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.6977659809911199</v>
+        <v>0.6661094527363174</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.006444444444444444</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>1.480992161204235</v>
+        <v>1.492000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3569,76 +3569,76 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>7.767982310668875</v>
+        <v>7.709691542288554</v>
       </c>
       <c r="E38" t="n">
-        <v>3.580784126984128</v>
+        <v>3.424000000000002</v>
       </c>
       <c r="F38" t="n">
-        <v>13.02711111111112</v>
+        <v>12.972</v>
       </c>
       <c r="G38" t="n">
-        <v>35.55663371239028</v>
+        <v>35.62095522388044</v>
       </c>
       <c r="H38" t="n">
-        <v>23.80377777777778</v>
+        <v>23.56000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>46.95488888888889</v>
+        <v>47.68000000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>22.37317029637019</v>
+        <v>22.09337313432827</v>
       </c>
       <c r="K38" t="n">
-        <v>16.28863110223111</v>
+        <v>16.35199999999999</v>
       </c>
       <c r="L38" t="n">
-        <v>27.81848457468457</v>
+        <v>27.84799999999999</v>
       </c>
       <c r="M38" t="n">
-        <v>8.41380802337518</v>
+        <v>8.439442786069646</v>
       </c>
       <c r="N38" t="n">
-        <v>3.748021428571427</v>
+        <v>3.680000000000002</v>
       </c>
       <c r="O38" t="n">
-        <v>14.0106365079365</v>
+        <v>14.136</v>
       </c>
       <c r="P38" t="n">
-        <v>2.496832178692865</v>
+        <v>2.616417910447752</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.4706380952380952</v>
+        <v>0.4719999999999998</v>
       </c>
       <c r="R38" t="n">
-        <v>6.026883597883598</v>
+        <v>6.143999999999998</v>
       </c>
       <c r="S38" t="n">
-        <v>0.7551599884176994</v>
+        <v>0.7899701492537307</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0138589027530204</v>
+        <v>0.016</v>
       </c>
       <c r="U38" t="n">
-        <v>2.551333333333332</v>
+        <v>2.635999999999998</v>
       </c>
       <c r="V38" t="n">
-        <v>0.1654531390665717</v>
+        <v>0.1914228855721392</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.7938883116883116</v>
+        <v>0.8359999999999996</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.01257915027278734</v>
+        <v>0.01586069651741292</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.201295101811768</v>
+        <v>0.2079999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3652,76 +3652,76 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>5.108563847429521</v>
+        <v>5.184199004975118</v>
       </c>
       <c r="E39" t="n">
-        <v>2.223573015873018</v>
+        <v>2.303999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>9.007999999999978</v>
+        <v>9.224000000000009</v>
       </c>
       <c r="G39" t="n">
-        <v>12.60799203980098</v>
+        <v>12.90471641791043</v>
       </c>
       <c r="H39" t="n">
-        <v>6.880222222222232</v>
+        <v>7.344000000000005</v>
       </c>
       <c r="I39" t="n">
-        <v>18.92266666666671</v>
+        <v>19.34799999999998</v>
       </c>
       <c r="J39" t="n">
-        <v>13.18176100450129</v>
+        <v>13.32109452736317</v>
       </c>
       <c r="K39" t="n">
-        <v>8.142860317460311</v>
+        <v>8.527999999999995</v>
       </c>
       <c r="L39" t="n">
-        <v>17.81424473304471</v>
+        <v>17.92800000000001</v>
       </c>
       <c r="M39" t="n">
-        <v>10.57436567164179</v>
+        <v>10.51876616915422</v>
       </c>
       <c r="N39" t="n">
-        <v>7.062476190476189</v>
+        <v>7.048000000000002</v>
       </c>
       <c r="O39" t="n">
-        <v>14.36357857142858</v>
+        <v>14.36</v>
       </c>
       <c r="P39" t="n">
-        <v>6.673979453756878</v>
+        <v>7.419721393034823</v>
       </c>
       <c r="Q39" t="n">
-        <v>4.441376911976911</v>
+        <v>5.004000000000001</v>
       </c>
       <c r="R39" t="n">
-        <v>9.488277693153075</v>
+        <v>9.936000000000007</v>
       </c>
       <c r="S39" t="n">
-        <v>5.12612330966645</v>
+        <v>4.869034825870632</v>
       </c>
       <c r="T39" t="n">
-        <v>2.867746853690974</v>
+        <v>2.631999999999998</v>
       </c>
       <c r="U39" t="n">
-        <v>7.595146964146962</v>
+        <v>7.335999999999998</v>
       </c>
       <c r="V39" t="n">
-        <v>3.047766471706428</v>
+        <v>2.65538308457711</v>
       </c>
       <c r="W39" t="n">
-        <v>1.070574358974358</v>
+        <v>0.9039999999999998</v>
       </c>
       <c r="X39" t="n">
-        <v>5.108895175997032</v>
+        <v>4.611999999999997</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.6382919862984612</v>
+        <v>0.5744278606965165</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.0572672484378367</v>
+        <v>0.024</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.493521058651495</v>
+        <v>1.431999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3744,67 +3744,67 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.007741293532338279</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J40" t="n">
-        <v>1.360405417357654</v>
+        <v>1.310109452736318</v>
       </c>
       <c r="K40" t="n">
-        <v>0.370481823731823</v>
+        <v>0.392</v>
       </c>
       <c r="L40" t="n">
-        <v>2.662279365079369</v>
+        <v>2.619999999999998</v>
       </c>
       <c r="M40" t="n">
-        <v>3.110761217720913</v>
+        <v>3.124019900497503</v>
       </c>
       <c r="N40" t="n">
-        <v>1.262095454545455</v>
+        <v>1.240000000000001</v>
       </c>
       <c r="O40" t="n">
-        <v>5.512697619047625</v>
+        <v>5.612</v>
       </c>
       <c r="P40" t="n">
-        <v>4.057905709547494</v>
+        <v>4.088736318407945</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.768371428571428</v>
+        <v>1.972</v>
       </c>
       <c r="R40" t="n">
-        <v>6.755979365079374</v>
+        <v>6.696000000000002</v>
       </c>
       <c r="S40" t="n">
-        <v>4.111375997836683</v>
+        <v>4.134069651741284</v>
       </c>
       <c r="T40" t="n">
-        <v>2.04472401117401</v>
+        <v>2.168000000000001</v>
       </c>
       <c r="U40" t="n">
-        <v>6.62101652791653</v>
+        <v>6.676000000000004</v>
       </c>
       <c r="V40" t="n">
-        <v>2.91838411184113</v>
+        <v>2.912557213930336</v>
       </c>
       <c r="W40" t="n">
-        <v>1.355462393162393</v>
+        <v>1.436</v>
       </c>
       <c r="X40" t="n">
-        <v>4.846932178932176</v>
+        <v>5.039999999999996</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.7739659975734592</v>
+        <v>0.7936318407960191</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.08508981388981381</v>
+        <v>0.052</v>
       </c>
       <c r="AA40" t="n">
-        <v>1.627851988751986</v>
+        <v>1.643999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3836,58 +3836,58 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.049731343283582</v>
       </c>
       <c r="K41" t="n">
-        <v>0.01066666666666667</v>
+        <v>0.016</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M41" t="n">
-        <v>10.81985472636814</v>
+        <v>11.05182089552238</v>
       </c>
       <c r="N41" t="n">
-        <v>5.133666666666669</v>
+        <v>5.167999999999997</v>
       </c>
       <c r="O41" t="n">
-        <v>18.47566666666667</v>
+        <v>18.68000000000001</v>
       </c>
       <c r="P41" t="n">
-        <v>20.05967799099733</v>
+        <v>20.47804975124369</v>
       </c>
       <c r="Q41" t="n">
-        <v>12.608</v>
+        <v>12.696</v>
       </c>
       <c r="R41" t="n">
-        <v>28.01998412698414</v>
+        <v>28.44400000000001</v>
       </c>
       <c r="S41" t="n">
-        <v>15.1069600993929</v>
+        <v>15.14720398009948</v>
       </c>
       <c r="T41" t="n">
-        <v>10.71705067194015</v>
+        <v>10.92</v>
       </c>
       <c r="U41" t="n">
-        <v>19.24859193399667</v>
+        <v>19.168</v>
       </c>
       <c r="V41" t="n">
-        <v>7.359936094778623</v>
+        <v>7.198089552238802</v>
       </c>
       <c r="W41" t="n">
-        <v>4.674499972249973</v>
+        <v>4.384000000000003</v>
       </c>
       <c r="X41" t="n">
-        <v>10.07060230880231</v>
+        <v>10.07999999999999</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.400757877280265</v>
+        <v>1.352019900497511</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.3853333333333325</v>
+        <v>0.3719999999999999</v>
       </c>
       <c r="AA41" t="n">
-        <v>2.621734391534392</v>
+        <v>2.576</v>
       </c>
     </row>
     <row r="42">
@@ -3910,67 +3910,67 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>17.40111909500117</v>
+        <v>17.17715422885571</v>
       </c>
       <c r="H42" t="n">
-        <v>9.443336507936506</v>
+        <v>9.160000000000002</v>
       </c>
       <c r="I42" t="n">
-        <v>27.23966666666664</v>
+        <v>26.93199999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>27.19085495538175</v>
+        <v>27.18724378109444</v>
       </c>
       <c r="K42" t="n">
-        <v>18.93756188375322</v>
+        <v>19.12800000000001</v>
       </c>
       <c r="L42" t="n">
-        <v>34.51476976279082</v>
+        <v>34.64400000000001</v>
       </c>
       <c r="M42" t="n">
-        <v>16.8778043197267</v>
+        <v>16.9129751243781</v>
       </c>
       <c r="N42" t="n">
-        <v>12.34627012987013</v>
+        <v>12.368</v>
       </c>
       <c r="O42" t="n">
-        <v>21.2198189033189</v>
+        <v>21.23200000000002</v>
       </c>
       <c r="P42" t="n">
-        <v>8.13703893926812</v>
+        <v>7.804736318407945</v>
       </c>
       <c r="Q42" t="n">
-        <v>4.217708802308803</v>
+        <v>4.135999999999998</v>
       </c>
       <c r="R42" t="n">
-        <v>12.50947292544978</v>
+        <v>12.2</v>
       </c>
       <c r="S42" t="n">
-        <v>2.988702307366479</v>
+        <v>3.029850746268649</v>
       </c>
       <c r="T42" t="n">
-        <v>0.7717355533355525</v>
+        <v>0.8160000000000001</v>
       </c>
       <c r="U42" t="n">
-        <v>6.083438095238097</v>
+        <v>6.008000000000004</v>
       </c>
       <c r="V42" t="n">
-        <v>0.8878862907683798</v>
+        <v>0.9199601990049746</v>
       </c>
       <c r="W42" t="n">
-        <v>0.03056349206349207</v>
+        <v>0.06400000000000002</v>
       </c>
       <c r="X42" t="n">
-        <v>2.315766666666668</v>
+        <v>2.364000000000002</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1207365132011897</v>
+        <v>0.130547263681592</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.5849904761904754</v>
+        <v>0.6040000000000005</v>
       </c>
     </row>
     <row r="43">
@@ -3984,76 +3984,76 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.02654726368159204</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="G43" t="n">
-        <v>5.310240938166293</v>
+        <v>5.408019900497496</v>
       </c>
       <c r="H43" t="n">
-        <v>2.297863492063489</v>
+        <v>2.376000000000002</v>
       </c>
       <c r="I43" t="n">
-        <v>9.565488888888895</v>
+        <v>9.659999999999995</v>
       </c>
       <c r="J43" t="n">
-        <v>12.72696384742951</v>
+        <v>12.53918407960198</v>
       </c>
       <c r="K43" t="n">
-        <v>6.804012698412705</v>
+        <v>7.016000000000004</v>
       </c>
       <c r="L43" t="n">
-        <v>19.06519716209717</v>
+        <v>19.14799999999998</v>
       </c>
       <c r="M43" t="n">
-        <v>12.90354007948933</v>
+        <v>12.71942288557213</v>
       </c>
       <c r="N43" t="n">
-        <v>8.030540367965369</v>
+        <v>8.088000000000006</v>
       </c>
       <c r="O43" t="n">
-        <v>17.70383948828948</v>
+        <v>17.42</v>
       </c>
       <c r="P43" t="n">
-        <v>9.719441427654569</v>
+        <v>10.00131343283581</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.451531716769642</v>
+        <v>7.071999999999997</v>
       </c>
       <c r="R43" t="n">
-        <v>13.07378616785467</v>
+        <v>13.37999999999999</v>
       </c>
       <c r="S43" t="n">
-        <v>6.568014581592061</v>
+        <v>6.970009950248745</v>
       </c>
       <c r="T43" t="n">
-        <v>4.346499641383529</v>
+        <v>4.407999999999998</v>
       </c>
       <c r="U43" t="n">
-        <v>9.005543091144807</v>
+        <v>9.468000000000002</v>
       </c>
       <c r="V43" t="n">
-        <v>3.8786045100917</v>
+        <v>3.82296517412935</v>
       </c>
       <c r="W43" t="n">
-        <v>2.125589826839826</v>
+        <v>2.128000000000001</v>
       </c>
       <c r="X43" t="n">
-        <v>5.851808515156848</v>
+        <v>5.972</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.9193693428665339</v>
+        <v>0.830427860696517</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.199660010240655</v>
+        <v>0.196</v>
       </c>
       <c r="AA43" t="n">
-        <v>2.020396549479522</v>
+        <v>1.927999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -4088,55 +4088,55 @@
         <v>0.092099502487562</v>
       </c>
       <c r="K44" t="n">
-        <v>0.012</v>
+        <v>0.036</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="M44" t="n">
-        <v>17.75314676616917</v>
+        <v>17.59110447761194</v>
       </c>
       <c r="N44" t="n">
-        <v>9.415828571428568</v>
+        <v>9.423999999999992</v>
       </c>
       <c r="O44" t="n">
-        <v>28.27978066378062</v>
+        <v>27.65199999999999</v>
       </c>
       <c r="P44" t="n">
-        <v>26.73958114980636</v>
+        <v>26.33594029850735</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.98266666666667</v>
+        <v>18.66000000000001</v>
       </c>
       <c r="R44" t="n">
-        <v>34.2288284049284</v>
+        <v>33.88400000000001</v>
       </c>
       <c r="S44" t="n">
-        <v>15.16464802939177</v>
+        <v>15.20680597014924</v>
       </c>
       <c r="T44" t="n">
-        <v>10.81840188330189</v>
+        <v>10.964</v>
       </c>
       <c r="U44" t="n">
-        <v>19.38365860066334</v>
+        <v>19.61600000000001</v>
       </c>
       <c r="V44" t="n">
-        <v>5.393503790570933</v>
+        <v>5.43146268656715</v>
       </c>
       <c r="W44" t="n">
-        <v>2.341133333333336</v>
+        <v>2.384000000000002</v>
       </c>
       <c r="X44" t="n">
-        <v>9.003666666666664</v>
+        <v>9.075999999999999</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.7482189054726356</v>
+        <v>0.7740895522388052</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="AA44" t="n">
-        <v>1.86</v>
+        <v>1.887999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -4150,76 +4150,76 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>16.89595135433939</v>
+        <v>17.67062686567162</v>
       </c>
       <c r="E45" t="n">
-        <v>8.384066666666664</v>
+        <v>8.659999999999997</v>
       </c>
       <c r="F45" t="n">
-        <v>27.98666666666663</v>
+        <v>28.65199999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>27.64748358208937</v>
+        <v>27.65586069651726</v>
       </c>
       <c r="H45" t="n">
-        <v>17.42666666666662</v>
+        <v>18.80000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>35.5233555555555</v>
+        <v>35.18400000000002</v>
       </c>
       <c r="J45" t="n">
-        <v>16.89898175787727</v>
+        <v>16.88682587064676</v>
       </c>
       <c r="K45" t="n">
-        <v>12.09746666666666</v>
+        <v>12.292</v>
       </c>
       <c r="L45" t="n">
-        <v>21.6545777777778</v>
+        <v>21.844</v>
       </c>
       <c r="M45" t="n">
-        <v>8.642943808734097</v>
+        <v>7.95826865671641</v>
       </c>
       <c r="N45" t="n">
-        <v>4.75257222222222</v>
+        <v>4.047999999999999</v>
       </c>
       <c r="O45" t="n">
-        <v>13.07667790542791</v>
+        <v>12.908</v>
       </c>
       <c r="P45" t="n">
-        <v>3.574361602306744</v>
+        <v>3.280915422885565</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.12815873015873</v>
+        <v>1.004</v>
       </c>
       <c r="R45" t="n">
-        <v>7.216495292982451</v>
+        <v>6.584000000000002</v>
       </c>
       <c r="S45" t="n">
-        <v>1.373768673228373</v>
+        <v>1.235223880597013</v>
       </c>
       <c r="T45" t="n">
-        <v>0.06860325948561244</v>
+        <v>0.02</v>
       </c>
       <c r="U45" t="n">
-        <v>3.5572</v>
+        <v>3.491999999999998</v>
       </c>
       <c r="V45" t="n">
-        <v>0.401322059422059</v>
+        <v>0.3631243781094522</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0333968253968254</v>
+        <v>0.004</v>
       </c>
       <c r="X45" t="n">
-        <v>1.247000000000001</v>
+        <v>1.204000000000001</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.04221558872305143</v>
+        <v>0.04185074626865667</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.3397460317460314</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="46">
@@ -4251,58 +4251,58 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>7.81395024875621</v>
+        <v>7.806606965174122</v>
       </c>
       <c r="K46" t="n">
-        <v>3.125511111111109</v>
+        <v>3.108</v>
       </c>
       <c r="L46" t="n">
-        <v>13.66288888888887</v>
+        <v>13.66400000000001</v>
       </c>
       <c r="M46" t="n">
-        <v>35.26699993726992</v>
+        <v>35.83022885572135</v>
       </c>
       <c r="N46" t="n">
-        <v>25.00957171717171</v>
+        <v>24.05200000000002</v>
       </c>
       <c r="O46" t="n">
-        <v>47.91036190476191</v>
+        <v>48.79999999999998</v>
       </c>
       <c r="P46" t="n">
-        <v>21.27250058530603</v>
+        <v>21.51906467661691</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.42169422799422</v>
+        <v>16.25599999999999</v>
       </c>
       <c r="R46" t="n">
-        <v>26.53144478973613</v>
+        <v>26.852</v>
       </c>
       <c r="S46" t="n">
-        <v>7.647812417932232</v>
+        <v>7.550407960198989</v>
       </c>
       <c r="T46" t="n">
-        <v>3.193944444444437</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="U46" t="n">
-        <v>12.36568961038961</v>
+        <v>12.608</v>
       </c>
       <c r="V46" t="n">
-        <v>1.842667251046351</v>
+        <v>1.798507462686565</v>
       </c>
       <c r="W46" t="n">
-        <v>0.2236666666666663</v>
+        <v>0.188</v>
       </c>
       <c r="X46" t="n">
-        <v>4.288000000000002</v>
+        <v>4.232000000000002</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.1765282476506354</v>
+        <v>0.1714427860696516</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.8119999999999982</v>
+        <v>0.7999999999999997</v>
       </c>
     </row>
     <row r="47">
@@ -4325,67 +4325,67 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>15.5737711442786</v>
+        <v>15.53331343283582</v>
       </c>
       <c r="H47" t="n">
-        <v>7.986000000000011</v>
+        <v>8.031999999999996</v>
       </c>
       <c r="I47" t="n">
-        <v>24.29733333333334</v>
+        <v>24.25599999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>44.36778510815935</v>
+        <v>44.97601990049744</v>
       </c>
       <c r="K47" t="n">
-        <v>31.55618287638286</v>
+        <v>32.20000000000001</v>
       </c>
       <c r="L47" t="n">
-        <v>56.15347423220056</v>
+        <v>54.48399999999999</v>
       </c>
       <c r="M47" t="n">
-        <v>15.3480494195688</v>
+        <v>15.35544278606965</v>
       </c>
       <c r="N47" t="n">
-        <v>8.348733333333332</v>
+        <v>8.379999999999994</v>
       </c>
       <c r="O47" t="n">
-        <v>22.33812380952384</v>
+        <v>22.388</v>
       </c>
       <c r="P47" t="n">
-        <v>3.596572929005752</v>
+        <v>3.635422885572128</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.8629714285714287</v>
+        <v>0.9200000000000002</v>
       </c>
       <c r="R47" t="n">
-        <v>7.78992830687831</v>
+        <v>7.659999999999994</v>
       </c>
       <c r="S47" t="n">
-        <v>0.8099712627339472</v>
+        <v>0.8033233830845752</v>
       </c>
       <c r="T47" t="n">
-        <v>0.005206349206349207</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>2.72185238095238</v>
+        <v>2.679999999999998</v>
       </c>
       <c r="V47" t="n">
-        <v>0.1447081497275525</v>
+        <v>0.1377114427860695</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>0.7418000000000002</v>
+        <v>0.6680000000000006</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.01787166655474282</v>
+        <v>0.01058706467661688</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.1903838383838379</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -4399,76 +4399,76 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1.371234051962408</v>
+        <v>2.188577114427856</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2604602073307954</v>
+        <v>0.6319999999999997</v>
       </c>
       <c r="F48" t="n">
-        <v>2.915555555555558</v>
+        <v>4.179999999999997</v>
       </c>
       <c r="G48" t="n">
-        <v>10.06342300402748</v>
+        <v>10.55703482587064</v>
       </c>
       <c r="H48" t="n">
-        <v>4.971210582010581</v>
+        <v>5.400000000000001</v>
       </c>
       <c r="I48" t="n">
-        <v>15.82240000000002</v>
+        <v>16.86799999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>13.21827841743661</v>
+        <v>13.35241791044774</v>
       </c>
       <c r="K48" t="n">
-        <v>8.000914285714279</v>
+        <v>8.552000000000007</v>
       </c>
       <c r="L48" t="n">
-        <v>19.0793177970178</v>
+        <v>18.97200000000001</v>
       </c>
       <c r="M48" t="n">
-        <v>11.50329368740711</v>
+        <v>11.37745273631839</v>
       </c>
       <c r="N48" t="n">
-        <v>7.884490873015877</v>
+        <v>7.476000000000004</v>
       </c>
       <c r="O48" t="n">
-        <v>15.8478406926407</v>
+        <v>15.552</v>
       </c>
       <c r="P48" t="n">
-        <v>7.799641636640413</v>
+        <v>8.33808955223879</v>
       </c>
       <c r="Q48" t="n">
-        <v>4.910240703534512</v>
+        <v>5.624000000000001</v>
       </c>
       <c r="R48" t="n">
-        <v>11.1997418689306</v>
+        <v>11.536</v>
       </c>
       <c r="S48" t="n">
-        <v>5.630973903307914</v>
+        <v>5.623721393034814</v>
       </c>
       <c r="T48" t="n">
-        <v>3.370465154018095</v>
+        <v>3.168000000000001</v>
       </c>
       <c r="U48" t="n">
-        <v>7.906810748608118</v>
+        <v>7.900000000000001</v>
       </c>
       <c r="V48" t="n">
-        <v>3.230832890026726</v>
+        <v>3.020238805970143</v>
       </c>
       <c r="W48" t="n">
-        <v>1.51137942057942</v>
+        <v>1.432</v>
       </c>
       <c r="X48" t="n">
-        <v>5.269276128377985</v>
+        <v>5.023999999999996</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.7267406234496883</v>
+        <v>0.6783880597014911</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.08751710956834291</v>
+        <v>0.1240000000000001</v>
       </c>
       <c r="AA48" t="n">
-        <v>1.639226225170114</v>
+        <v>1.643999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -4500,58 +4500,58 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3659683839101737</v>
+        <v>0.4138507462686561</v>
       </c>
       <c r="K49" t="n">
-        <v>0.024</v>
+        <v>0.016</v>
       </c>
       <c r="L49" t="n">
-        <v>0.9920061349278739</v>
+        <v>1.068</v>
       </c>
       <c r="M49" t="n">
-        <v>2.404286772486769</v>
+        <v>2.429552238805968</v>
       </c>
       <c r="N49" t="n">
-        <v>0.7911419191919183</v>
+        <v>0.8159999999999998</v>
       </c>
       <c r="O49" t="n">
-        <v>4.334927777777776</v>
+        <v>4.291999999999998</v>
       </c>
       <c r="P49" t="n">
-        <v>3.770194951170062</v>
+        <v>3.768258706467654</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.735114285714285</v>
+        <v>1.767999999999999</v>
       </c>
       <c r="R49" t="n">
-        <v>6.488336507936503</v>
+        <v>6.435999999999999</v>
       </c>
       <c r="S49" t="n">
-        <v>3.960511569138427</v>
+        <v>3.972199004975117</v>
       </c>
       <c r="T49" t="n">
-        <v>1.813530147630149</v>
+        <v>1.815999999999999</v>
       </c>
       <c r="U49" t="n">
-        <v>6.253499999999995</v>
+        <v>6.259999999999994</v>
       </c>
       <c r="V49" t="n">
-        <v>2.953165055846453</v>
+        <v>2.955442786069639</v>
       </c>
       <c r="W49" t="n">
-        <v>1.490490548340547</v>
+        <v>1.54</v>
       </c>
       <c r="X49" t="n">
-        <v>4.779799999999998</v>
+        <v>4.955999999999999</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.813780613048274</v>
+        <v>0.8174925373134322</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.1323111111111109</v>
+        <v>0.02</v>
       </c>
       <c r="AA49" t="n">
-        <v>1.808643671143673</v>
+        <v>1.787999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -4565,76 +4565,76 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4308548922056379</v>
+        <v>0.5717213930348253</v>
       </c>
       <c r="E50" t="n">
-        <v>0.05819248246307067</v>
+        <v>0.044</v>
       </c>
       <c r="F50" t="n">
-        <v>1.075892929292929</v>
+        <v>1.292</v>
       </c>
       <c r="G50" t="n">
-        <v>2.362322068230271</v>
+        <v>2.554049751243775</v>
       </c>
       <c r="H50" t="n">
-        <v>0.927797162097162</v>
+        <v>1.036</v>
       </c>
       <c r="I50" t="n">
-        <v>4.222676190476188</v>
+        <v>4.591999999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>3.854119734660022</v>
+        <v>3.868019900497499</v>
       </c>
       <c r="K50" t="n">
-        <v>1.681411688311691</v>
+        <v>1.716</v>
       </c>
       <c r="L50" t="n">
-        <v>6.308032722832722</v>
+        <v>6.348000000000002</v>
       </c>
       <c r="M50" t="n">
-        <v>4.465673359393499</v>
+        <v>4.446805970149248</v>
       </c>
       <c r="N50" t="n">
-        <v>2.161435714285712</v>
+        <v>2.212000000000002</v>
       </c>
       <c r="O50" t="n">
-        <v>7.277218181818186</v>
+        <v>7.443999999999999</v>
       </c>
       <c r="P50" t="n">
-        <v>4.30908274500512</v>
+        <v>4.384258706467651</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.035817316017316</v>
+        <v>2.248000000000001</v>
       </c>
       <c r="R50" t="n">
-        <v>6.564955555555546</v>
+        <v>6.876</v>
       </c>
       <c r="S50" t="n">
-        <v>3.798472105083029</v>
+        <v>3.794149253731325</v>
       </c>
       <c r="T50" t="n">
-        <v>2.037008080808079</v>
+        <v>2.032</v>
       </c>
       <c r="U50" t="n">
-        <v>6.193394660894661</v>
+        <v>6.372000000000003</v>
       </c>
       <c r="V50" t="n">
-        <v>2.543668386066066</v>
+        <v>2.520497512437802</v>
       </c>
       <c r="W50" t="n">
-        <v>1.235564857364859</v>
+        <v>1.164000000000001</v>
       </c>
       <c r="X50" t="n">
-        <v>4.24874126984127</v>
+        <v>4.228</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.6946537353410631</v>
+        <v>0.6663084577114421</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.003777777777777777</v>
+        <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>1.46693431534639</v>
+        <v>1.512000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -4666,58 +4666,58 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>0.0206965174129352</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="M51" t="n">
-        <v>0.8101530679933657</v>
+        <v>0.8344278606965162</v>
       </c>
       <c r="N51" t="n">
-        <v>0.2195269841269839</v>
+        <v>0.196</v>
       </c>
       <c r="O51" t="n">
-        <v>1.711299999999998</v>
+        <v>1.739999999999999</v>
       </c>
       <c r="P51" t="n">
-        <v>1.683869983416247</v>
+        <v>1.684875621890546</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.6633761904761905</v>
+        <v>0.548</v>
       </c>
       <c r="R51" t="n">
-        <v>3.119111111111109</v>
+        <v>3.115999999999999</v>
       </c>
       <c r="S51" t="n">
-        <v>2.134815920398002</v>
+        <v>2.045452736318402</v>
       </c>
       <c r="T51" t="n">
-        <v>0.7763186813186795</v>
+        <v>0.7560000000000003</v>
       </c>
       <c r="U51" t="n">
-        <v>3.807999999999998</v>
+        <v>3.723999999999998</v>
       </c>
       <c r="V51" t="n">
-        <v>1.67895987212421</v>
+        <v>1.655940298507462</v>
       </c>
       <c r="W51" t="n">
-        <v>0.619408730158731</v>
+        <v>0.5920000000000004</v>
       </c>
       <c r="X51" t="n">
-        <v>3.335866666666667</v>
+        <v>3.324000000000001</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.4611915223137338</v>
+        <v>0.4403383084577099</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.006666666666666668</v>
+        <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>1.082372371826336</v>
+        <v>1.048</v>
       </c>
     </row>
     <row r="52">
@@ -4758,49 +4758,49 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>27.54413749157138</v>
+        <v>26.11820895522382</v>
       </c>
       <c r="N52" t="n">
-        <v>14.87376031746031</v>
+        <v>14.64</v>
       </c>
       <c r="O52" t="n">
-        <v>40.22757907647904</v>
+        <v>39.76800000000003</v>
       </c>
       <c r="P52" t="n">
-        <v>30.28748894411271</v>
+        <v>30.33900497512425</v>
       </c>
       <c r="Q52" t="n">
-        <v>22.72273333333333</v>
+        <v>23.05600000000001</v>
       </c>
       <c r="R52" t="n">
-        <v>36.79729832598315</v>
+        <v>37.724</v>
       </c>
       <c r="S52" t="n">
-        <v>12.63315358493867</v>
+        <v>12.65432835820893</v>
       </c>
       <c r="T52" t="n">
-        <v>6.365611111111122</v>
+        <v>6.363999999999996</v>
       </c>
       <c r="U52" t="n">
-        <v>18.29266952862426</v>
+        <v>18.32399999999999</v>
       </c>
       <c r="V52" t="n">
-        <v>3.163754560530676</v>
+        <v>3.228636815920388</v>
       </c>
       <c r="W52" t="n">
-        <v>0.7919999999999985</v>
+        <v>0.7999999999999997</v>
       </c>
       <c r="X52" t="n">
-        <v>6.464000000000001</v>
+        <v>6.516</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.324960909737028</v>
+        <v>0.3295721393034821</v>
       </c>
       <c r="Z52" t="n">
         <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>1.135079365079364</v>
+        <v>1.148000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -4814,76 +4814,76 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>4.934624654505237</v>
+        <v>5.243681592039788</v>
       </c>
       <c r="E53" t="n">
-        <v>1.968758201058201</v>
+        <v>2.171999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>8.929333333333318</v>
+        <v>9.380000000000006</v>
       </c>
       <c r="G53" t="n">
-        <v>12.27854356787491</v>
+        <v>12.82059701492536</v>
       </c>
       <c r="H53" t="n">
-        <v>6.459777777777784</v>
+        <v>7.008000000000004</v>
       </c>
       <c r="I53" t="n">
-        <v>18.83644444444449</v>
+        <v>19.54799999999998</v>
       </c>
       <c r="J53" t="n">
-        <v>13.43327012556265</v>
+        <v>13.31022885572138</v>
       </c>
       <c r="K53" t="n">
-        <v>7.717869841269844</v>
+        <v>8.263999999999999</v>
       </c>
       <c r="L53" t="n">
-        <v>17.88148600288598</v>
+        <v>17.90000000000001</v>
       </c>
       <c r="M53" t="n">
-        <v>10.64712189054726</v>
+        <v>10.44290547263681</v>
       </c>
       <c r="N53" t="n">
-        <v>7.083155555555553</v>
+        <v>6.924000000000004</v>
       </c>
       <c r="O53" t="n">
-        <v>14.43634523809523</v>
+        <v>14.072</v>
       </c>
       <c r="P53" t="n">
-        <v>6.668010622698495</v>
+        <v>7.312736318407956</v>
       </c>
       <c r="Q53" t="n">
-        <v>4.399976911976911</v>
+        <v>4.812000000000002</v>
       </c>
       <c r="R53" t="n">
-        <v>9.550712551540874</v>
+        <v>10.008</v>
       </c>
       <c r="S53" t="n">
-        <v>5.130157140512221</v>
+        <v>4.865074626865657</v>
       </c>
       <c r="T53" t="n">
-        <v>2.856413520357641</v>
+        <v>2.583999999999998</v>
       </c>
       <c r="U53" t="n">
-        <v>7.591146964146962</v>
+        <v>7.235999999999999</v>
       </c>
       <c r="V53" t="n">
-        <v>3.05476776155349</v>
+        <v>2.624776119402981</v>
       </c>
       <c r="W53" t="n">
-        <v>1.154836263736263</v>
+        <v>0.9599999999999999</v>
       </c>
       <c r="X53" t="n">
-        <v>5.081180890282747</v>
+        <v>4.575999999999997</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.6383186361181453</v>
+        <v>0.5672238805970138</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.05165392472451297</v>
+        <v>0.004</v>
       </c>
       <c r="AA53" t="n">
-        <v>1.467933879164316</v>
+        <v>1.372</v>
       </c>
     </row>
     <row r="54">
@@ -4897,76 +4897,76 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>0.01026865671641784</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8516229369027869</v>
+        <v>0.7805970149253717</v>
       </c>
       <c r="H54" t="n">
-        <v>0.07758974728974724</v>
+        <v>0.008</v>
       </c>
       <c r="I54" t="n">
-        <v>1.91135026455027</v>
+        <v>1.811999999999998</v>
       </c>
       <c r="J54" t="n">
-        <v>1.747064229634379</v>
+        <v>1.708636815920399</v>
       </c>
       <c r="K54" t="n">
-        <v>0.5553042328042329</v>
+        <v>0.4760000000000001</v>
       </c>
       <c r="L54" t="n">
-        <v>3.505326932326933</v>
+        <v>3.368</v>
       </c>
       <c r="M54" t="n">
-        <v>2.293325966846853</v>
+        <v>2.295562189054714</v>
       </c>
       <c r="N54" t="n">
-        <v>0.8518547619047614</v>
+        <v>0.8039999999999998</v>
       </c>
       <c r="O54" t="n">
-        <v>4.210286652236651</v>
+        <v>4.195999999999997</v>
       </c>
       <c r="P54" t="n">
-        <v>2.438452268277136</v>
+        <v>2.425731343283576</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.9600700854700854</v>
+        <v>1.06</v>
       </c>
       <c r="R54" t="n">
-        <v>4.477006349206351</v>
+        <v>4.491999999999997</v>
       </c>
       <c r="S54" t="n">
-        <v>2.358504927773007</v>
+        <v>2.370985074626864</v>
       </c>
       <c r="T54" t="n">
-        <v>0.9607890812890816</v>
+        <v>0.992</v>
       </c>
       <c r="U54" t="n">
-        <v>4.30828074148074</v>
+        <v>4.303999999999997</v>
       </c>
       <c r="V54" t="n">
-        <v>1.637294435275645</v>
+        <v>1.623343283582087</v>
       </c>
       <c r="W54" t="n">
-        <v>0.5313630326501844</v>
+        <v>0.4279999999999998</v>
       </c>
       <c r="X54" t="n">
-        <v>3.050129441231765</v>
+        <v>3.051999999999999</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.4584891720112023</v>
+        <v>0.4623084577114416</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>1.22830363607691</v>
+        <v>1.200000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -4980,76 +4980,76 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.0158009950248756</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G55" t="n">
-        <v>1.464265553186448</v>
+        <v>1.33797014925373</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3487056203056205</v>
+        <v>0.268</v>
       </c>
       <c r="I55" t="n">
-        <v>3.018655555555559</v>
+        <v>2.747999999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>3.229180919357022</v>
+        <v>3.240975124378092</v>
       </c>
       <c r="K55" t="n">
-        <v>1.354731216931219</v>
+        <v>1.375999999999999</v>
       </c>
       <c r="L55" t="n">
-        <v>5.536466999666993</v>
+        <v>5.440000000000002</v>
       </c>
       <c r="M55" t="n">
-        <v>4.048598463255917</v>
+        <v>4.071800995024861</v>
       </c>
       <c r="N55" t="n">
-        <v>1.941814280164279</v>
+        <v>1.912</v>
       </c>
       <c r="O55" t="n">
-        <v>6.776202769452769</v>
+        <v>6.752000000000005</v>
       </c>
       <c r="P55" t="n">
-        <v>4.320110494904019</v>
+        <v>4.306447761194027</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.174020168720169</v>
+        <v>2.128000000000001</v>
       </c>
       <c r="R55" t="n">
-        <v>7.035078835978831</v>
+        <v>6.928000000000001</v>
       </c>
       <c r="S55" t="n">
-        <v>3.971158740688081</v>
+        <v>3.900218905472621</v>
       </c>
       <c r="T55" t="n">
-        <v>2.05320589225589</v>
+        <v>1.935999999999999</v>
       </c>
       <c r="U55" t="n">
-        <v>6.39697113997114</v>
+        <v>6.203999999999996</v>
       </c>
       <c r="V55" t="n">
-        <v>2.737402311178013</v>
+        <v>2.719920398009949</v>
       </c>
       <c r="W55" t="n">
-        <v>1.276719763569764</v>
+        <v>1.252000000000001</v>
       </c>
       <c r="X55" t="n">
-        <v>4.44406940836941</v>
+        <v>4.424000000000003</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.7297870595808543</v>
+        <v>0.7353830845771132</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.01875555555555556</v>
+        <v>0.008</v>
       </c>
       <c r="AA55" t="n">
-        <v>1.579776732188805</v>
+        <v>1.556</v>
       </c>
     </row>
     <row r="56">
@@ -5081,58 +5081,58 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>27.2830211588576</v>
+        <v>25.93289552238789</v>
       </c>
       <c r="K56" t="n">
-        <v>15.0373719169719</v>
+        <v>14.736</v>
       </c>
       <c r="L56" t="n">
-        <v>39.91011880711881</v>
+        <v>38.88399999999999</v>
       </c>
       <c r="M56" t="n">
-        <v>31.43508285529164</v>
+        <v>30.939263681592</v>
       </c>
       <c r="N56" t="n">
-        <v>23.56663284900515</v>
+        <v>23.63199999999999</v>
       </c>
       <c r="O56" t="n">
-        <v>36.67225575535577</v>
+        <v>37.10800000000002</v>
       </c>
       <c r="P56" t="n">
-        <v>14.47272408559683</v>
+        <v>13.75458706467661</v>
       </c>
       <c r="Q56" t="n">
-        <v>8.672120261437911</v>
+        <v>8.724</v>
       </c>
       <c r="R56" t="n">
-        <v>19.58198000603342</v>
+        <v>18.81599999999999</v>
       </c>
       <c r="S56" t="n">
-        <v>4.386959514596311</v>
+        <v>4.360577114427848</v>
       </c>
       <c r="T56" t="n">
-        <v>1.242449735449734</v>
+        <v>1.212000000000001</v>
       </c>
       <c r="U56" t="n">
-        <v>8.227999999999994</v>
+        <v>8.223999999999995</v>
       </c>
       <c r="V56" t="n">
-        <v>0.9670566611387502</v>
+        <v>0.9768955223880598</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>2.552000000000001</v>
+        <v>2.544000000000001</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.09591818684356004</v>
+        <v>0.09617910447761176</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.4313402116402115</v>
+        <v>0.4400000000000001</v>
       </c>
     </row>
     <row r="57">
@@ -5164,58 +5164,58 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>11.33453930348258</v>
+        <v>11.49389054726367</v>
       </c>
       <c r="K57" t="n">
-        <v>5.37844444444444</v>
+        <v>5.412000000000001</v>
       </c>
       <c r="L57" t="n">
-        <v>18.0623333333333</v>
+        <v>18.16400000000001</v>
       </c>
       <c r="M57" t="n">
-        <v>39.86821536409018</v>
+        <v>41.77000995024873</v>
       </c>
       <c r="N57" t="n">
-        <v>27.70356832464062</v>
+        <v>28.19999999999999</v>
       </c>
       <c r="O57" t="n">
-        <v>52.66664841269838</v>
+        <v>53.124</v>
       </c>
       <c r="P57" t="n">
-        <v>18.4978649023268</v>
+        <v>18.16378109452736</v>
       </c>
       <c r="Q57" t="n">
-        <v>12.05838095238095</v>
+        <v>12.13999999999999</v>
       </c>
       <c r="R57" t="n">
-        <v>25.47545345601537</v>
+        <v>24.91200000000002</v>
       </c>
       <c r="S57" t="n">
-        <v>4.724497007028343</v>
+        <v>4.845492537313426</v>
       </c>
       <c r="T57" t="n">
-        <v>1.437874074074077</v>
+        <v>1.456</v>
       </c>
       <c r="U57" t="n">
-        <v>9.658628571428569</v>
+        <v>9.483999999999996</v>
       </c>
       <c r="V57" t="n">
-        <v>0.9357459843638923</v>
+        <v>0.9403184079601982</v>
       </c>
       <c r="W57" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>2.862</v>
+        <v>2.811999999999999</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.08136822238016257</v>
+        <v>0.08266666666666653</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.3377252136752135</v>
+        <v>0.4079999999999998</v>
       </c>
     </row>
     <row r="58">
@@ -5229,76 +5229,76 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4091898839137634</v>
+        <v>0.5443781094527358</v>
       </c>
       <c r="E58" t="n">
-        <v>0.05860518087576907</v>
+        <v>0.048</v>
       </c>
       <c r="F58" t="n">
-        <v>1.056111111111111</v>
+        <v>1.236</v>
       </c>
       <c r="G58" t="n">
-        <v>2.305722139303477</v>
+        <v>2.496975124378102</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8253541606541606</v>
+        <v>0.9079999999999996</v>
       </c>
       <c r="I58" t="n">
-        <v>4.219444444444441</v>
+        <v>4.568000000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>3.76372669983415</v>
+        <v>3.834447761194019</v>
       </c>
       <c r="K58" t="n">
-        <v>1.567585762385765</v>
+        <v>1.576</v>
       </c>
       <c r="L58" t="n">
-        <v>6.441117908017909</v>
+        <v>6.52</v>
       </c>
       <c r="M58" t="n">
-        <v>4.531470852088757</v>
+        <v>4.476955223880593</v>
       </c>
       <c r="N58" t="n">
-        <v>2.226744372294371</v>
+        <v>2.212000000000002</v>
       </c>
       <c r="O58" t="n">
-        <v>7.442869769119775</v>
+        <v>7.351999999999996</v>
       </c>
       <c r="P58" t="n">
-        <v>4.337198074083636</v>
+        <v>4.417074626865658</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.141310644910645</v>
+        <v>2.132000000000001</v>
       </c>
       <c r="R58" t="n">
-        <v>7.109364550264557</v>
+        <v>7.052</v>
       </c>
       <c r="S58" t="n">
-        <v>3.790599602516502</v>
+        <v>3.803263681592025</v>
       </c>
       <c r="T58" t="n">
-        <v>1.886657823657826</v>
+        <v>1.895999999999999</v>
       </c>
       <c r="U58" t="n">
-        <v>6.302731823731824</v>
+        <v>6.440000000000001</v>
       </c>
       <c r="V58" t="n">
-        <v>2.57091304947342</v>
+        <v>2.555940298507459</v>
       </c>
       <c r="W58" t="n">
-        <v>1.216288306138307</v>
+        <v>1.168000000000001</v>
       </c>
       <c r="X58" t="n">
-        <v>4.290074603174604</v>
+        <v>4.312000000000001</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.7087196491582207</v>
+        <v>0.6819104477611934</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.004666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>1.498750647162722</v>
+        <v>1.444</v>
       </c>
     </row>
     <row r="59">
@@ -5330,58 +5330,58 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>16.82706202321726</v>
+        <v>16.66161194029852</v>
       </c>
       <c r="K59" t="n">
-        <v>9.266711599511584</v>
+        <v>9.112000000000007</v>
       </c>
       <c r="L59" t="n">
-        <v>27.51627543859649</v>
+        <v>26.95999999999999</v>
       </c>
       <c r="M59" t="n">
-        <v>26.99661780503899</v>
+        <v>26.75864676616906</v>
       </c>
       <c r="N59" t="n">
-        <v>18.30875714285713</v>
+        <v>18.77599999999998</v>
       </c>
       <c r="O59" t="n">
-        <v>34.20751017316017</v>
+        <v>34.09200000000001</v>
       </c>
       <c r="P59" t="n">
-        <v>15.99330138463669</v>
+        <v>16.58656716417909</v>
       </c>
       <c r="Q59" t="n">
-        <v>11.57371229717995</v>
+        <v>11.952</v>
       </c>
       <c r="R59" t="n">
-        <v>20.1133305045545</v>
+        <v>20.576</v>
       </c>
       <c r="S59" t="n">
-        <v>7.730762840456007</v>
+        <v>7.522507462686564</v>
       </c>
       <c r="T59" t="n">
-        <v>3.854437769929878</v>
+        <v>3.788000000000002</v>
       </c>
       <c r="U59" t="n">
-        <v>11.80079761904762</v>
+        <v>11.67200000000001</v>
       </c>
       <c r="V59" t="n">
-        <v>2.401444096018217</v>
+        <v>2.398885572139298</v>
       </c>
       <c r="W59" t="n">
-        <v>0.704666666666666</v>
+        <v>0.7160000000000002</v>
       </c>
       <c r="X59" t="n">
-        <v>4.748045021645023</v>
+        <v>4.740000000000001</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.3173847429519072</v>
+        <v>0.3187462686567158</v>
       </c>
       <c r="Z59" t="n">
         <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.9820000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -5395,76 +5395,76 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3337048645660573</v>
+        <v>0.4696915422885554</v>
       </c>
       <c r="E60" t="n">
-        <v>0.05501787928846748</v>
+        <v>0.024</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9077111111111104</v>
+        <v>1.179999999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>1.476582425175708</v>
+        <v>1.475960199004974</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3821296296296302</v>
+        <v>0.3519999999999998</v>
       </c>
       <c r="I60" t="n">
-        <v>2.90254074074074</v>
+        <v>2.956000000000001</v>
       </c>
       <c r="J60" t="n">
-        <v>2.145183437789405</v>
+        <v>2.124776119402981</v>
       </c>
       <c r="K60" t="n">
-        <v>0.7559129426129424</v>
+        <v>0.7280000000000004</v>
       </c>
       <c r="L60" t="n">
-        <v>3.877682421282422</v>
+        <v>3.900000000000001</v>
       </c>
       <c r="M60" t="n">
-        <v>2.400256412741481</v>
+        <v>2.442248756218898</v>
       </c>
       <c r="N60" t="n">
-        <v>1.023411904761905</v>
+        <v>1.024</v>
       </c>
       <c r="O60" t="n">
-        <v>4.316280086580086</v>
+        <v>4.372000000000001</v>
       </c>
       <c r="P60" t="n">
-        <v>2.531573099905429</v>
+        <v>2.505552238805961</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.039257142857143</v>
+        <v>0.9479999999999998</v>
       </c>
       <c r="R60" t="n">
-        <v>4.324206349206352</v>
+        <v>4.343999999999997</v>
       </c>
       <c r="S60" t="n">
-        <v>2.270805988575628</v>
+        <v>2.298945273631829</v>
       </c>
       <c r="T60" t="n">
-        <v>0.9609523809523811</v>
+        <v>0.8759999999999998</v>
       </c>
       <c r="U60" t="n">
-        <v>3.968100000000002</v>
+        <v>3.996000000000001</v>
       </c>
       <c r="V60" t="n">
-        <v>1.572139605336622</v>
+        <v>1.602726368159203</v>
       </c>
       <c r="W60" t="n">
-        <v>0.4888849816849815</v>
+        <v>0.5480000000000002</v>
       </c>
       <c r="X60" t="n">
-        <v>2.895488888888889</v>
+        <v>2.972</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.4223814413244748</v>
+        <v>0.4259900497512431</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>1.032771428571428</v>
+        <v>1.096</v>
       </c>
     </row>
     <row r="61">
@@ -5487,67 +5487,67 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>26.12568623548904</v>
+        <v>25.80165174129338</v>
       </c>
       <c r="H61" t="n">
-        <v>15.352</v>
+        <v>15.20399999999999</v>
       </c>
       <c r="I61" t="n">
-        <v>38.56430952380954</v>
+        <v>37.79599999999998</v>
       </c>
       <c r="J61" t="n">
-        <v>31.36267244297985</v>
+        <v>31.35052736318401</v>
       </c>
       <c r="K61" t="n">
-        <v>23.67667094525701</v>
+        <v>23.19599999999998</v>
       </c>
       <c r="L61" t="n">
-        <v>37.81862197432196</v>
+        <v>37.98800000000003</v>
       </c>
       <c r="M61" t="n">
-        <v>13.95443685145699</v>
+        <v>13.98382089552238</v>
       </c>
       <c r="N61" t="n">
-        <v>8.610938095238085</v>
+        <v>8.823999999999998</v>
       </c>
       <c r="O61" t="n">
-        <v>19.40416428571428</v>
+        <v>19.336</v>
       </c>
       <c r="P61" t="n">
-        <v>4.636430221556579</v>
+        <v>4.619064676616904</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.579884848484849</v>
+        <v>1.548</v>
       </c>
       <c r="R61" t="n">
-        <v>8.70661154031154</v>
+        <v>8.748000000000005</v>
       </c>
       <c r="S61" t="n">
-        <v>1.254541782669145</v>
+        <v>1.28049751243781</v>
       </c>
       <c r="T61" t="n">
-        <v>0.04572874402286168</v>
+        <v>0.1240000000000001</v>
       </c>
       <c r="U61" t="n">
-        <v>3.316793406593409</v>
+        <v>3.364000000000002</v>
       </c>
       <c r="V61" t="n">
-        <v>0.2978866396732062</v>
+        <v>0.3050348258706465</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>1.14867619047619</v>
+        <v>1.144</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.02882837725055573</v>
+        <v>0.02997014925373122</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.2007377221543884</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="62">
@@ -5570,67 +5570,67 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>4.623383084577113</v>
+        <v>4.705910447761192</v>
       </c>
       <c r="H62" t="n">
-        <v>1.564000000000001</v>
+        <v>1.592000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>8.284000000000008</v>
+        <v>8.459999999999994</v>
       </c>
       <c r="J62" t="n">
-        <v>26.79065246781951</v>
+        <v>27.20415920397998</v>
       </c>
       <c r="K62" t="n">
-        <v>16.8940885829799</v>
+        <v>16.97200000000001</v>
       </c>
       <c r="L62" t="n">
-        <v>37.80456115288224</v>
+        <v>38.48399999999998</v>
       </c>
       <c r="M62" t="n">
-        <v>22.2874300639658</v>
+        <v>22.47854726368147</v>
       </c>
       <c r="N62" t="n">
-        <v>17.00636515151515</v>
+        <v>16.84399999999999</v>
       </c>
       <c r="O62" t="n">
-        <v>27.04445328837829</v>
+        <v>26.98399999999999</v>
       </c>
       <c r="P62" t="n">
-        <v>11.88398541305362</v>
+        <v>11.56469651741293</v>
       </c>
       <c r="Q62" t="n">
-        <v>7.754675806872864</v>
+        <v>7.423999999999994</v>
       </c>
       <c r="R62" t="n">
-        <v>16.09060559340357</v>
+        <v>16.29600000000001</v>
       </c>
       <c r="S62" t="n">
-        <v>4.81383291909858</v>
+        <v>4.723562189054707</v>
       </c>
       <c r="T62" t="n">
-        <v>1.816908569208573</v>
+        <v>1.787999999999999</v>
       </c>
       <c r="U62" t="n">
-        <v>8.259999999999996</v>
+        <v>8.251999999999992</v>
       </c>
       <c r="V62" t="n">
-        <v>1.422864645746735</v>
+        <v>1.40670646766169</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1799999999999997</v>
+        <v>0.196</v>
       </c>
       <c r="X62" t="n">
-        <v>3.21578787878788</v>
+        <v>3.144</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.1847491431730234</v>
+        <v>0.184457711442786</v>
       </c>
       <c r="Z62" t="n">
         <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.7302888888888873</v>
+        <v>0.7240000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -5644,76 +5644,76 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>26.23743946932004</v>
+        <v>26.50439800995021</v>
       </c>
       <c r="E63" t="n">
-        <v>14.30928888888886</v>
+        <v>14.48000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>39.24666666666673</v>
+        <v>39.55999999999997</v>
       </c>
       <c r="G63" t="n">
-        <v>31.62038213693431</v>
+        <v>31.16031840796011</v>
       </c>
       <c r="H63" t="n">
-        <v>24.34268465608465</v>
+        <v>23.604</v>
       </c>
       <c r="I63" t="n">
-        <v>38.77622222222228</v>
+        <v>37.68799999999997</v>
       </c>
       <c r="J63" t="n">
-        <v>14.22709452736317</v>
+        <v>13.98581094527361</v>
       </c>
       <c r="K63" t="n">
-        <v>8.723466666666662</v>
+        <v>8.204000000000001</v>
       </c>
       <c r="L63" t="n">
-        <v>20.34564444444443</v>
+        <v>20.24000000000001</v>
       </c>
       <c r="M63" t="n">
-        <v>4.917041238253169</v>
+        <v>4.615044776119389</v>
       </c>
       <c r="N63" t="n">
-        <v>1.643905555555557</v>
+        <v>1.524</v>
       </c>
       <c r="O63" t="n">
-        <v>9.75197142857143</v>
+        <v>9.560000000000008</v>
       </c>
       <c r="P63" t="n">
-        <v>1.581038212018313</v>
+        <v>1.434427860696516</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.08240952380952379</v>
+        <v>0.068</v>
       </c>
       <c r="R63" t="n">
-        <v>4.136349783549788</v>
+        <v>3.775999999999998</v>
       </c>
       <c r="S63" t="n">
-        <v>0.4241814551580707</v>
+        <v>0.4168756218905461</v>
       </c>
       <c r="T63" t="n">
-        <v>0.01516721274368333</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>1.530780952380953</v>
+        <v>1.516</v>
       </c>
       <c r="V63" t="n">
-        <v>0.08841717602463861</v>
+        <v>0.09253731343283565</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>0.4034285714285712</v>
+        <v>0.4279999999999998</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.01049834530292764</v>
+        <v>0.009313432835820873</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.1969219576719572</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="64">
@@ -5727,76 +5727,76 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3240929242675498</v>
+        <v>0.4636019900497494</v>
       </c>
       <c r="E64" t="n">
-        <v>0.05520835547894368</v>
+        <v>0.048</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9063777777777769</v>
+        <v>1.179999999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>1.487318743583667</v>
+        <v>1.485631840796019</v>
       </c>
       <c r="H64" t="n">
-        <v>0.3521486772486778</v>
+        <v>0.3519999999999998</v>
       </c>
       <c r="I64" t="n">
-        <v>2.918762962962962</v>
+        <v>2.932</v>
       </c>
       <c r="J64" t="n">
-        <v>2.154397368137663</v>
+        <v>2.136358208955219</v>
       </c>
       <c r="K64" t="n">
-        <v>0.6508698412698415</v>
+        <v>0.7040000000000003</v>
       </c>
       <c r="L64" t="n">
-        <v>3.896857024457025</v>
+        <v>3.924000000000001</v>
       </c>
       <c r="M64" t="n">
-        <v>2.415578469126224</v>
+        <v>2.466368159203973</v>
       </c>
       <c r="N64" t="n">
-        <v>1.043478571428571</v>
+        <v>1.048</v>
       </c>
       <c r="O64" t="n">
-        <v>4.352946753246754</v>
+        <v>4.420000000000001</v>
       </c>
       <c r="P64" t="n">
-        <v>2.549918594653909</v>
+        <v>2.527164179104468</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.071257142857143</v>
+        <v>0.972</v>
       </c>
       <c r="R64" t="n">
-        <v>4.427836507936511</v>
+        <v>4.391999999999997</v>
       </c>
       <c r="S64" t="n">
-        <v>2.345118191899701</v>
+        <v>2.315900497512426</v>
       </c>
       <c r="T64" t="n">
-        <v>0.9609523809523811</v>
+        <v>0.8759999999999998</v>
       </c>
       <c r="U64" t="n">
-        <v>4.19652380952381</v>
+        <v>4.068000000000001</v>
       </c>
       <c r="V64" t="n">
-        <v>1.617297822574351</v>
+        <v>1.611562189054726</v>
       </c>
       <c r="W64" t="n">
-        <v>0.5355536324786326</v>
+        <v>0.5720000000000004</v>
       </c>
       <c r="X64" t="n">
-        <v>3.015370634920635</v>
+        <v>3.02</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.4280078330811062</v>
+        <v>0.4262288557213921</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>1.046799206349206</v>
+        <v>1.096</v>
       </c>
     </row>
     <row r="65">
@@ -5837,49 +5837,49 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>35.21409972314853</v>
+        <v>34.23615920398006</v>
       </c>
       <c r="N65" t="n">
-        <v>22.10779399489399</v>
+        <v>21.18</v>
       </c>
       <c r="O65" t="n">
-        <v>50.41274870129872</v>
+        <v>48.97199999999997</v>
       </c>
       <c r="P65" t="n">
-        <v>30.23998597746447</v>
+        <v>30.26145273631832</v>
       </c>
       <c r="Q65" t="n">
-        <v>22.57438095238096</v>
+        <v>22.904</v>
       </c>
       <c r="R65" t="n">
-        <v>36.69608509846992</v>
+        <v>36.57200000000001</v>
       </c>
       <c r="S65" t="n">
-        <v>9.292382118507968</v>
+        <v>9.350865671641769</v>
       </c>
       <c r="T65" t="n">
-        <v>4.265577777777787</v>
+        <v>4.303999999999997</v>
       </c>
       <c r="U65" t="n">
-        <v>14.85017777777777</v>
+        <v>14.82799999999999</v>
       </c>
       <c r="V65" t="n">
-        <v>1.87996558477454</v>
+        <v>1.884378109452736</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1999999999999997</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="X65" t="n">
         <v>4.543999999999996</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.1670404380215322</v>
+        <v>0.169094527363184</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.7631999999999982</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="66">
@@ -5893,76 +5893,76 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>2.639824212271956</v>
+        <v>2.471323383084567</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8449221260221258</v>
+        <v>0.7959999999999998</v>
       </c>
       <c r="F66" t="n">
-        <v>4.805111111111115</v>
+        <v>4.507999999999998</v>
       </c>
       <c r="G66" t="n">
-        <v>17.64110945273632</v>
+        <v>17.48461691542289</v>
       </c>
       <c r="H66" t="n">
-        <v>10.36904444444443</v>
+        <v>10.14000000000001</v>
       </c>
       <c r="I66" t="n">
-        <v>26.68333333333329</v>
+        <v>26.71599999999999</v>
       </c>
       <c r="J66" t="n">
-        <v>19.29995806084461</v>
+        <v>19.24222885572139</v>
       </c>
       <c r="K66" t="n">
-        <v>12.68267861767863</v>
+        <v>13.24799999999999</v>
       </c>
       <c r="L66" t="n">
-        <v>25.22451904761908</v>
+        <v>25.348</v>
       </c>
       <c r="M66" t="n">
-        <v>12.95921798546948</v>
+        <v>13.53530348258705</v>
       </c>
       <c r="N66" t="n">
-        <v>9.172511111111108</v>
+        <v>9.780000000000008</v>
       </c>
       <c r="O66" t="n">
-        <v>16.79422066822068</v>
+        <v>17.15600000000001</v>
       </c>
       <c r="P66" t="n">
-        <v>7.764617233624964</v>
+        <v>7.801333333333324</v>
       </c>
       <c r="Q66" t="n">
-        <v>4.541306182499991</v>
+        <v>4.548000000000004</v>
       </c>
       <c r="R66" t="n">
-        <v>11.13429219572798</v>
+        <v>11.288</v>
       </c>
       <c r="S66" t="n">
-        <v>4.088061808267755</v>
+        <v>4.254348258706451</v>
       </c>
       <c r="T66" t="n">
-        <v>1.49972266992267</v>
+        <v>1.659999999999999</v>
       </c>
       <c r="U66" t="n">
-        <v>6.924820301920302</v>
+        <v>7.068000000000007</v>
       </c>
       <c r="V66" t="n">
-        <v>1.646494345799478</v>
+        <v>1.769671641791046</v>
       </c>
       <c r="W66" t="n">
-        <v>0.3783380952380947</v>
+        <v>0.4039999999999999</v>
       </c>
       <c r="X66" t="n">
-        <v>3.467878732378733</v>
+        <v>3.512000000000002</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.3014359367185231</v>
+        <v>0.3114427860696514</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>1.008084641284641</v>
+        <v>1.004</v>
       </c>
     </row>
     <row r="67">
@@ -5976,76 +5976,76 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.0526965174129352</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="G67" t="n">
-        <v>10.60191807628523</v>
+        <v>10.65828855721393</v>
       </c>
       <c r="H67" t="n">
-        <v>5.166707936507939</v>
+        <v>5.204</v>
       </c>
       <c r="I67" t="n">
-        <v>18.35644444444442</v>
+        <v>18.62000000000002</v>
       </c>
       <c r="J67" t="n">
-        <v>20.34131088568693</v>
+        <v>20.55150248756211</v>
       </c>
       <c r="K67" t="n">
-        <v>12.75120759610759</v>
+        <v>12.8</v>
       </c>
       <c r="L67" t="n">
-        <v>27.80813344433345</v>
+        <v>28.152</v>
       </c>
       <c r="M67" t="n">
-        <v>16.3976583192098</v>
+        <v>16.37126368159204</v>
       </c>
       <c r="N67" t="n">
-        <v>12.14817171717172</v>
+        <v>12.076</v>
       </c>
       <c r="O67" t="n">
-        <v>21.19023073593073</v>
+        <v>21.036</v>
       </c>
       <c r="P67" t="n">
-        <v>9.788651820136606</v>
+        <v>10.13894527363184</v>
       </c>
       <c r="Q67" t="n">
-        <v>6.491703145341071</v>
+        <v>6.516000000000003</v>
       </c>
       <c r="R67" t="n">
-        <v>13.13303061229912</v>
+        <v>13.952</v>
       </c>
       <c r="S67" t="n">
-        <v>5.422382693151785</v>
+        <v>5.337273631840787</v>
       </c>
       <c r="T67" t="n">
-        <v>2.804146297341954</v>
+        <v>2.683999999999999</v>
       </c>
       <c r="U67" t="n">
-        <v>8.731277264281614</v>
+        <v>8.524000000000001</v>
       </c>
       <c r="V67" t="n">
-        <v>2.426422708392287</v>
+        <v>2.280636815920386</v>
       </c>
       <c r="W67" t="n">
-        <v>0.7428995115995108</v>
+        <v>0.6920000000000005</v>
       </c>
       <c r="X67" t="n">
-        <v>4.80043264678717</v>
+        <v>4.663999999999999</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.4176830182899828</v>
+        <v>0.4057711442786058</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.0006666666666666668</v>
+        <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>1.218101912901913</v>
+        <v>1.256</v>
       </c>
     </row>
     <row r="68">
@@ -6068,67 +6068,67 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3735789228460855</v>
+        <v>0.4039601990049737</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="I68" t="n">
-        <v>1.036595138195138</v>
+        <v>1.036</v>
       </c>
       <c r="J68" t="n">
-        <v>2.558110888558639</v>
+        <v>2.487721393034818</v>
       </c>
       <c r="K68" t="n">
-        <v>0.7987370370370359</v>
+        <v>0.6840000000000005</v>
       </c>
       <c r="L68" t="n">
-        <v>4.738688245088243</v>
+        <v>4.784000000000002</v>
       </c>
       <c r="M68" t="n">
-        <v>3.865087754892965</v>
+        <v>3.873373134328345</v>
       </c>
       <c r="N68" t="n">
-        <v>1.571111177711177</v>
+        <v>1.595999999999999</v>
       </c>
       <c r="O68" t="n">
-        <v>6.44122268287268</v>
+        <v>6.515999999999999</v>
       </c>
       <c r="P68" t="n">
-        <v>4.318836635724687</v>
+        <v>4.330885572139289</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.136598268398269</v>
+        <v>2.104000000000001</v>
       </c>
       <c r="R68" t="n">
-        <v>7.225426984126986</v>
+        <v>7.427999999999998</v>
       </c>
       <c r="S68" t="n">
-        <v>4.082577261838942</v>
+        <v>4.134447761194012</v>
       </c>
       <c r="T68" t="n">
-        <v>2.158581240981237</v>
+        <v>2.156000000000001</v>
       </c>
       <c r="U68" t="n">
-        <v>6.417255266955267</v>
+        <v>6.636000000000003</v>
       </c>
       <c r="V68" t="n">
-        <v>2.807411889068011</v>
+        <v>2.835004975124368</v>
       </c>
       <c r="W68" t="n">
-        <v>1.302822144522145</v>
+        <v>1.256</v>
       </c>
       <c r="X68" t="n">
-        <v>4.616223376623376</v>
+        <v>4.655999999999999</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.7239028694909287</v>
+        <v>0.745034825870646</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.1868634920634916</v>
+        <v>0.1919999999999999</v>
       </c>
       <c r="AA68" t="n">
-        <v>1.577032946345021</v>
+        <v>1.615999999999999</v>
       </c>
     </row>
     <row r="69">
@@ -6151,67 +6151,67 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>15.79422885572136</v>
+        <v>15.78025870646766</v>
       </c>
       <c r="H69" t="n">
-        <v>7.29866666666668</v>
+        <v>7.335999999999995</v>
       </c>
       <c r="I69" t="n">
-        <v>25.06800000000004</v>
+        <v>25.00799999999998</v>
       </c>
       <c r="J69" t="n">
-        <v>44.36778510815935</v>
+        <v>45.30113432835816</v>
       </c>
       <c r="K69" t="n">
-        <v>31.5125162097162</v>
+        <v>32.81999999999998</v>
       </c>
       <c r="L69" t="n">
-        <v>56.19864089886723</v>
+        <v>55.48400000000004</v>
       </c>
       <c r="M69" t="n">
-        <v>15.09187595356551</v>
+        <v>15.06191044776119</v>
       </c>
       <c r="N69" t="n">
-        <v>8.162900000000002</v>
+        <v>8.151999999999997</v>
       </c>
       <c r="O69" t="n">
-        <v>22.54533333333333</v>
+        <v>22.56399999999998</v>
       </c>
       <c r="P69" t="n">
-        <v>3.541067551133212</v>
+        <v>3.534726368159193</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.7490000000000003</v>
+        <v>0.7000000000000006</v>
       </c>
       <c r="R69" t="n">
-        <v>8.162199591149609</v>
+        <v>8.155999999999993</v>
       </c>
       <c r="S69" t="n">
-        <v>0.8098695332859487</v>
+        <v>0.8013134328358192</v>
       </c>
       <c r="T69" t="n">
-        <v>0.001206349206349207</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>3.089185714285713</v>
+        <v>3.095999999999999</v>
       </c>
       <c r="V69" t="n">
-        <v>0.1492253585552091</v>
+        <v>0.1466268656716416</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>0.8635333333333328</v>
+        <v>0.8319999999999997</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.01504937995061543</v>
+        <v>0.01295522388059701</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.1970364011633357</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="70">
@@ -6234,67 +6234,67 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.007741293532338279</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J70" t="n">
-        <v>1.346853178551684</v>
+        <v>1.278925373134328</v>
       </c>
       <c r="K70" t="n">
-        <v>0.359498917748917</v>
+        <v>0.384</v>
       </c>
       <c r="L70" t="n">
-        <v>2.647390476190479</v>
+        <v>2.555999999999998</v>
       </c>
       <c r="M70" t="n">
-        <v>3.111821582563367</v>
+        <v>3.111184079601981</v>
       </c>
       <c r="N70" t="n">
-        <v>1.293109740259741</v>
+        <v>1.32</v>
       </c>
       <c r="O70" t="n">
-        <v>5.393416666666664</v>
+        <v>5.436000000000002</v>
       </c>
       <c r="P70" t="n">
-        <v>4.064380478559578</v>
+        <v>4.102388059701481</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.848704761904762</v>
+        <v>1.863999999999999</v>
       </c>
       <c r="R70" t="n">
-        <v>6.89730634920635</v>
+        <v>6.896000000000003</v>
       </c>
       <c r="S70" t="n">
-        <v>4.114929671268469</v>
+        <v>4.106009950248751</v>
       </c>
       <c r="T70" t="n">
-        <v>2.062943702593701</v>
+        <v>2.172000000000001</v>
       </c>
       <c r="U70" t="n">
-        <v>6.508494305694306</v>
+        <v>6.276000000000002</v>
       </c>
       <c r="V70" t="n">
-        <v>2.94244747006021</v>
+        <v>2.916338308457703</v>
       </c>
       <c r="W70" t="n">
-        <v>1.345329059829061</v>
+        <v>1.404</v>
       </c>
       <c r="X70" t="n">
-        <v>4.977379797979796</v>
+        <v>4.908</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.7724339040727088</v>
+        <v>0.7706666666666661</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.1185416176416175</v>
+        <v>0.1520000000000001</v>
       </c>
       <c r="AA70" t="n">
-        <v>1.650518655418653</v>
+        <v>1.632</v>
       </c>
     </row>
     <row r="71">
@@ -6329,55 +6329,55 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.005703703703703704</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>5.37133333333333</v>
+        <v>5.268437810945264</v>
       </c>
       <c r="N71" t="n">
-        <v>2.432000000000002</v>
+        <v>2.360000000000002</v>
       </c>
       <c r="O71" t="n">
-        <v>9.468800000000009</v>
+        <v>9.295999999999998</v>
       </c>
       <c r="P71" t="n">
-        <v>12.39332172470976</v>
+        <v>12.42292537313431</v>
       </c>
       <c r="Q71" t="n">
-        <v>7.021999999999999</v>
+        <v>7.019999999999999</v>
       </c>
       <c r="R71" t="n">
-        <v>19.44333227513225</v>
+        <v>19.32</v>
       </c>
       <c r="S71" t="n">
-        <v>11.9344885841567</v>
+        <v>11.9467661691542</v>
       </c>
       <c r="T71" t="n">
-        <v>7.353346672236148</v>
+        <v>7.232</v>
       </c>
       <c r="U71" t="n">
-        <v>16.7332099378882</v>
+        <v>16.812</v>
       </c>
       <c r="V71" t="n">
-        <v>7.382268577865832</v>
+        <v>7.36015920398009</v>
       </c>
       <c r="W71" t="n">
-        <v>4.572588861138859</v>
+        <v>4.600000000000003</v>
       </c>
       <c r="X71" t="n">
-        <v>10.0206404040404</v>
+        <v>10.072</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.706686460674021</v>
+        <v>1.744636815920397</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.780335449735448</v>
+        <v>0.7999999999999997</v>
       </c>
       <c r="AA71" t="n">
-        <v>3.053964703814701</v>
+        <v>3.203999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -6409,58 +6409,58 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>5.166997014925358</v>
+        <v>5.045313432835806</v>
       </c>
       <c r="K72" t="n">
-        <v>2.502844444444444</v>
+        <v>2.403999999999999</v>
       </c>
       <c r="L72" t="n">
-        <v>8.989733333333326</v>
+        <v>8.616000000000003</v>
       </c>
       <c r="M72" t="n">
-        <v>12.52777492300402</v>
+        <v>12.39542288557214</v>
       </c>
       <c r="N72" t="n">
-        <v>7.016885714285714</v>
+        <v>6.848000000000001</v>
       </c>
       <c r="O72" t="n">
-        <v>18.92447200577201</v>
+        <v>18.304</v>
       </c>
       <c r="P72" t="n">
-        <v>12.74968943686292</v>
+        <v>12.78224875621889</v>
       </c>
       <c r="Q72" t="n">
-        <v>8.710949145299143</v>
+        <v>8.395999999999997</v>
       </c>
       <c r="R72" t="n">
-        <v>17.57460221453812</v>
+        <v>17.71999999999999</v>
       </c>
       <c r="S72" t="n">
-        <v>9.471372152381722</v>
+        <v>9.665313432835823</v>
       </c>
       <c r="T72" t="n">
-        <v>6.482202047664178</v>
+        <v>6.467999999999998</v>
       </c>
       <c r="U72" t="n">
-        <v>12.76557178932179</v>
+        <v>12.924</v>
       </c>
       <c r="V72" t="n">
-        <v>5.242140942806331</v>
+        <v>5.580895522388054</v>
       </c>
       <c r="W72" t="n">
-        <v>3.392477716727715</v>
+        <v>3.464000000000002</v>
       </c>
       <c r="X72" t="n">
-        <v>7.480264853316616</v>
+        <v>7.928000000000004</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.246369823181294</v>
+        <v>1.275283582089552</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.3585608465608462</v>
+        <v>0.3639999999999999</v>
       </c>
       <c r="AA72" t="n">
-        <v>2.289254784860813</v>
+        <v>2.372000000000002</v>
       </c>
     </row>
   </sheetData>
